--- a/Projects/CCBOTTLERSUS/REDSCORE/Data/MANUAL RED SURVEY_COKE_UNITED_RS_KPI_Template_v3.5.xlsx
+++ b/Projects/CCBOTTLERSUS/REDSCORE/Data/MANUAL RED SURVEY_COKE_UNITED_RS_KPI_Template_v3.5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="610">
   <si>
     <t>KPI Name</t>
   </si>
@@ -947,7 +947,7 @@
     <t>Dining5</t>
   </si>
   <si>
-    <t>Are all Coca-Cola core brands available?  (Outlet serves ALL 7  brands (CC Mkts) (KO, DK, KOZ, SP,GP, DAS, SW); Outlet serves ALL 8  brands (CC/DP Mkts) (KO, DK, KOZ, SP,DP,GP, DAS, SW) [Fountain Outlets pass with 4 Core SSD:  KO, DK, KOZ, SP:  Plus DP in DP markets])</t>
+    <t>Are all Coca-Cola core brands available?  (Coke markets (KO, DK, KOZ, SP,GP, DAS, SW); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS, SW)[Fountain Outlets pass with 4 Core SSD:  KO, DK, KOZ, SP:  Plus DP in DP markets)</t>
   </si>
   <si>
     <t>Dining6</t>
@@ -977,321 +977,348 @@
     <t>Dining10</t>
   </si>
   <si>
+    <t>Have we merchandised the outlet with Occasion Messaging?  (Occasion Messaging: With Food, On the Go Breaktime, Wellness Hydration, On the Go Refreshment (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
+  </si>
+  <si>
+    <t>Dining11</t>
+  </si>
+  <si>
+    <t>Additional Cooler placement (Premium, Energy, Breakfast, Innovation)?  (Counter Top or Impulse Cooler)</t>
+  </si>
+  <si>
+    <t>Dining12</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola products in date?  (Includes all Bottle / Can and BIB Products)</t>
+  </si>
+  <si>
+    <t>Fitness1</t>
+  </si>
+  <si>
+    <t>FSOP - Fitness</t>
+  </si>
+  <si>
+    <t>Fitness2</t>
+  </si>
+  <si>
+    <t>Fitness3</t>
+  </si>
+  <si>
+    <t>Fitness4</t>
+  </si>
+  <si>
+    <t>Fitness5</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola core brands available?  (Outlet serves ALL 6  brands (PWRAD, Core Power, DAS, SW, VW, DAS Spk))</t>
+  </si>
+  <si>
+    <t>Fitness6</t>
+  </si>
+  <si>
+    <t>Is KO the Exclusive Still Beverage offered in the Outlet?  (Includes all packages, Core Brands, Secondary Brands)</t>
+  </si>
+  <si>
+    <t>Fitness7</t>
+  </si>
+  <si>
+    <t>Fitness8</t>
+  </si>
+  <si>
+    <t>Have we merchandised the outlet with Occasion Messaging?  (Fitness Hydration messaging (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
+  </si>
+  <si>
+    <t>Fitness9</t>
+  </si>
+  <si>
+    <t>Lodging1</t>
+  </si>
+  <si>
+    <t>Do we have Cold Drink Equipment in the outlet?  (Fountain, Cooler, Vender, Other = Yes; Dealer Owned non branded = Yes)</t>
+  </si>
+  <si>
+    <t>FSOP - Lodging</t>
+  </si>
+  <si>
+    <t>Lodging2</t>
+  </si>
+  <si>
+    <t>Lodging3</t>
+  </si>
+  <si>
+    <t>Lodging4</t>
+  </si>
+  <si>
+    <t>Lodging5</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola core brands available?  (Coke Markets (KO, DK, KOZ, SP,GP, DAS, SW); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS, SW))</t>
+  </si>
+  <si>
+    <t>Lodging6</t>
+  </si>
+  <si>
+    <t>Lodging7</t>
+  </si>
+  <si>
+    <t>Lodging8</t>
+  </si>
+  <si>
+    <t>Lodging9</t>
+  </si>
+  <si>
+    <t>Is there Coca Cola snack beverage combo available and messaging in the outlet?  [Correct occasion with snack item including Coke Package]</t>
+  </si>
+  <si>
+    <t>Lodging10</t>
+  </si>
+  <si>
+    <t>Have we merchandised the outlet with Occasion Messaging?  (Occasion Messaging: On the Go Refreshment, Wellness Hydration (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
+  </si>
+  <si>
+    <t>Lodging11</t>
+  </si>
+  <si>
+    <t>Is Dasani/Smartwater available in-room or given to guest at Check Inn?  (Includes Neck Ringer on product in room)</t>
+  </si>
+  <si>
+    <t>Lodging12</t>
+  </si>
+  <si>
+    <t>Lodging13</t>
+  </si>
+  <si>
+    <t>Transportation1</t>
+  </si>
+  <si>
+    <t>FSOP - Transportation</t>
+  </si>
+  <si>
+    <t>Transportation2</t>
+  </si>
+  <si>
+    <t>Transportation3</t>
+  </si>
+  <si>
+    <t>Transportation4</t>
+  </si>
+  <si>
+    <t>Transportation5</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola core brands available?  (Coke markets (KO, DK, KOZ, SP,GP, DAS, SW, Monster); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS, SW, Monster))</t>
+  </si>
+  <si>
+    <t>Transportation6</t>
+  </si>
+  <si>
+    <t>Transportation7</t>
+  </si>
+  <si>
+    <t>Transportation8</t>
+  </si>
+  <si>
+    <t>Transportation9</t>
+  </si>
+  <si>
+    <t>Is there Coca Cola meal and/or snack beverage combo available and messaging in the outlet?  (Correct occasion with meal item including Coke Package and Bundle Price)</t>
+  </si>
+  <si>
+    <t>Transportation10</t>
+  </si>
+  <si>
+    <t>Have we merchandised the outlet with Occasion Messaging?  (Occasion Messaging: On the Go Refreshment, With Food, Wellness Hydration (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
+  </si>
+  <si>
+    <t>Transportation11</t>
+  </si>
+  <si>
+    <t>Transportation12</t>
+  </si>
+  <si>
+    <t>Amusement1</t>
+  </si>
+  <si>
+    <t>FSOP - Amusement Rec</t>
+  </si>
+  <si>
+    <t>Amusement2</t>
+  </si>
+  <si>
+    <t>Amusement3</t>
+  </si>
+  <si>
+    <t>Amusement4</t>
+  </si>
+  <si>
+    <t>Amusement5</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola core brands available?  (Coke markets (KO, DK, KOZ, SP,GP, DAS, SW); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS, SW))</t>
+  </si>
+  <si>
+    <t>Amusement6</t>
+  </si>
+  <si>
+    <t>Amusement7</t>
+  </si>
+  <si>
+    <t>Amusement8</t>
+  </si>
+  <si>
+    <t>Amusement9</t>
+  </si>
+  <si>
+    <t>Is there Coca Cola meal/snack beverage combo available and messaging in the outlet?  [Correct occasion with meal/snack item including Coke Package and Bundle Price ]</t>
+  </si>
+  <si>
+    <t>Amusement10</t>
+  </si>
+  <si>
+    <t>Amusement11</t>
+  </si>
+  <si>
+    <t>Amusement12</t>
+  </si>
+  <si>
+    <t>SpecRetail1</t>
+  </si>
+  <si>
+    <t>FSOP - Specality Retail</t>
+  </si>
+  <si>
+    <t>SpecRetail2</t>
+  </si>
+  <si>
+    <t>SpecRetail3</t>
+  </si>
+  <si>
+    <t>SpecRetail4</t>
+  </si>
+  <si>
+    <t>SpecRetail5</t>
+  </si>
+  <si>
+    <t>SpecRetail6</t>
+  </si>
+  <si>
+    <t>SpecRetail7</t>
+  </si>
+  <si>
+    <t>SpecRetail8</t>
+  </si>
+  <si>
+    <t>SpecRetail9</t>
+  </si>
+  <si>
+    <t>SpecRetail10</t>
+  </si>
+  <si>
+    <t>Have we merchandised the outlet with Occasion Messaging?  (Occasion Messaging: On the Go Refreshment, Wellness Hydration, Fitness Hydration (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
+  </si>
+  <si>
+    <t>SpecRetail11</t>
+  </si>
+  <si>
+    <t>Additional Cooler placement (Premium, Energy, Innovation)?  (Counter Top or Impulse Cooler)</t>
+  </si>
+  <si>
+    <t>SpecRetail12</t>
+  </si>
+  <si>
+    <t>CURetail1</t>
+  </si>
+  <si>
+    <t>FSOP - Micro Mart</t>
+  </si>
+  <si>
+    <t>CURetail2</t>
+  </si>
+  <si>
+    <t>CURetail3</t>
+  </si>
+  <si>
+    <t>CURetail4</t>
+  </si>
+  <si>
+    <t>CURetail5</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola core brands available?  (Coke Markets (KO, DK, KOZ, SP,GP, DAS, SW, Monster); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS, SW, Monster))</t>
+  </si>
+  <si>
+    <t>CURetail6</t>
+  </si>
+  <si>
+    <t>CURetail7</t>
+  </si>
+  <si>
+    <t>CURetail8</t>
+  </si>
+  <si>
+    <t>CURetail9</t>
+  </si>
+  <si>
+    <t>Is there Coca Cola Snack beverage combo available and messaging in the outlet?  [Correct occasion with snack item including Coke Package]</t>
+  </si>
+  <si>
+    <t>CURetail10</t>
+  </si>
+  <si>
+    <t>Have we merchandised the outlet with Occasion Messaging?  (Occasion Messaging: On the Go Refreshment, On the Go Breaktime, With Food, Wellness Hydration (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
+  </si>
+  <si>
+    <t>CURetail11</t>
+  </si>
+  <si>
+    <t>Additional Cooler placement (Premium, Energy, Breakfast, Innovation)?  (Counter Top or Impulse cooler)</t>
+  </si>
+  <si>
+    <t>CURetail12</t>
+  </si>
+  <si>
+    <t>Restaurant1</t>
+  </si>
+  <si>
+    <t>FSOP - Restaurant</t>
+  </si>
+  <si>
+    <t>Restaurant2</t>
+  </si>
+  <si>
+    <t>Restaurant3</t>
+  </si>
+  <si>
+    <t>Restaurant4</t>
+  </si>
+  <si>
+    <t>Restaurant5</t>
+  </si>
+  <si>
+    <t>Are all Coca-Cola core brands available?  (Coke markets (KO, DK, KOZ, SP,GP, DAS or SW); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS or SW); [Fountain Outlets pass with 4 Core SSD:  KO, DK, KOZ, SP:  Plus DP in DP markets)</t>
+  </si>
+  <si>
+    <t>Restaurant6</t>
+  </si>
+  <si>
+    <t>Restaurant7</t>
+  </si>
+  <si>
+    <t>Is KO the Exclusive Still Beverage offered in the Outlet?  (Includes all packages, Core Brands, Secondary Brands) (Restaurant must have at a minimum: GPT (Brewed or B/C), Bottled Water (Dasani or SW))</t>
+  </si>
+  <si>
+    <t>Restaurant8</t>
+  </si>
+  <si>
+    <t>Restaurant9</t>
+  </si>
+  <si>
+    <t>Restaurant10</t>
+  </si>
+  <si>
     <t>Have we merchandised the outlet with our LOS Execution?  (Minimum of 2:  PUSH/PULL, COMBO BOARD, TABLE TENTS, COUNTER  MESSAGING, Occasion Messaging)</t>
   </si>
   <si>
-    <t>Dining11</t>
-  </si>
-  <si>
-    <t>Additional Cooler placement (Premium, Energy, Breakfast, Innovation)?  (Counter Top or Impulse Cooler)</t>
-  </si>
-  <si>
-    <t>Dining12</t>
-  </si>
-  <si>
-    <t>Are all Coca-Cola products in date?  (Includes all Bottle / Can and BIB Products)</t>
-  </si>
-  <si>
-    <t>Fitness1</t>
-  </si>
-  <si>
-    <t>FSOP - Fitness</t>
-  </si>
-  <si>
-    <t>Fitness2</t>
-  </si>
-  <si>
-    <t>Fitness3</t>
-  </si>
-  <si>
-    <t>Fitness4</t>
-  </si>
-  <si>
-    <t>Fitness5</t>
-  </si>
-  <si>
-    <t>Are all Coca-Cola core brands available?  (Outlet serves ALL 6  brands (PWRAD, Core Power, DAS, SW, VW, DAS Spk))</t>
-  </si>
-  <si>
-    <t>Fitness6</t>
-  </si>
-  <si>
-    <t>Is KO the Exclusive Still Beverage offered in the Outlet?  (Includes all packages, Core Brands, Secondary Brands)</t>
-  </si>
-  <si>
-    <t>Fitness7</t>
-  </si>
-  <si>
-    <t>Fitness8</t>
-  </si>
-  <si>
-    <t>Have we merchandised the outlet with our POS Execution?  ((Minimum of 2:  Fitness Hydration messaging (door decal, static cling, counter card, cooler graphics, shelf strip))</t>
-  </si>
-  <si>
-    <t>Fitness9</t>
-  </si>
-  <si>
-    <t>Lodging1</t>
-  </si>
-  <si>
-    <t>Do we have Cold Drink Equipment in the outlet?  (Fountain, Cooler, Vender, Other = Yes; Dealer Owned non branded = Yes)</t>
-  </si>
-  <si>
-    <t>FSOP - Lodging</t>
-  </si>
-  <si>
-    <t>Lodging2</t>
-  </si>
-  <si>
-    <t>Lodging3</t>
-  </si>
-  <si>
-    <t>Lodging4</t>
-  </si>
-  <si>
-    <t>Lodging5</t>
-  </si>
-  <si>
-    <t>Are all Coca-Cola core brands available?  (Outlet serves ALL 7  brands (CC Mkts) (KO, DK, KOZ, SP,GP, DAS, SW); Outlet serves ALL 8  brands (CC/DP Mkts) (KO, DK, KOZ, SP,DP,GP, DAS, SW))</t>
-  </si>
-  <si>
-    <t>Lodging6</t>
-  </si>
-  <si>
-    <t>Lodging7</t>
-  </si>
-  <si>
-    <t>Lodging8</t>
-  </si>
-  <si>
-    <t>Lodging9</t>
-  </si>
-  <si>
-    <t>Is there Coca Cola snack beverage combo available and messaging in the outlet?  (Correct occasion with meal item including Coke Package and Bundle Price)</t>
-  </si>
-  <si>
-    <t>Lodging10</t>
-  </si>
-  <si>
-    <t>Lodging11</t>
-  </si>
-  <si>
-    <t>Is Dasani/Smartwater available in-room or given to guest at Check Inn?  (Includes Neck Ringer on product in room)</t>
-  </si>
-  <si>
-    <t>Lodging12</t>
-  </si>
-  <si>
-    <t>Lodging13</t>
-  </si>
-  <si>
-    <t>Transportation1</t>
-  </si>
-  <si>
-    <t>FSOP - Transportation</t>
-  </si>
-  <si>
-    <t>Transportation2</t>
-  </si>
-  <si>
-    <t>Transportation3</t>
-  </si>
-  <si>
-    <t>Transportation4</t>
-  </si>
-  <si>
-    <t>Transportation5</t>
-  </si>
-  <si>
-    <t>Are all Coca-Cola core brands available?  (Outlet serves ALL 7 brands (CC Mkts) (KO, DK, KOZ, SP,GP, DAS, SW, Monster); Outlet serves ALL 8  brands (CC/DP Mkts) (KO, DK, KOZ, SP,DP,GP, DAS, SW, Monster))</t>
-  </si>
-  <si>
-    <t>Transportation6</t>
-  </si>
-  <si>
-    <t>Transportation7</t>
-  </si>
-  <si>
-    <t>Transportation8</t>
-  </si>
-  <si>
-    <t>Transportation9</t>
-  </si>
-  <si>
-    <t>Is there Coca Cola meal and/or snack beverage combo available and messaging in the outlet?  (Correct occasion with meal item including Coke Package and Bundle Price)</t>
-  </si>
-  <si>
-    <t>Transportation10</t>
-  </si>
-  <si>
-    <t>Transportation11</t>
-  </si>
-  <si>
-    <t>Transportation12</t>
-  </si>
-  <si>
-    <t>Amusement1</t>
-  </si>
-  <si>
-    <t>FSOP - Amusement Rec</t>
-  </si>
-  <si>
-    <t>Amusement2</t>
-  </si>
-  <si>
-    <t>Amusement3</t>
-  </si>
-  <si>
-    <t>Amusement4</t>
-  </si>
-  <si>
-    <t>Amusement5</t>
-  </si>
-  <si>
-    <t>Amusement6</t>
-  </si>
-  <si>
-    <t>Amusement7</t>
-  </si>
-  <si>
-    <t>Amusement8</t>
-  </si>
-  <si>
-    <t>Amusement9</t>
-  </si>
-  <si>
-    <t>Amusement10</t>
-  </si>
-  <si>
-    <t>Amusement11</t>
-  </si>
-  <si>
-    <t>Amusement12</t>
-  </si>
-  <si>
-    <t>SpecRetail1</t>
-  </si>
-  <si>
-    <t>FSOP - Specality Retail</t>
-  </si>
-  <si>
-    <t>SpecRetail2</t>
-  </si>
-  <si>
-    <t>SpecRetail3</t>
-  </si>
-  <si>
-    <t>SpecRetail4</t>
-  </si>
-  <si>
-    <t>SpecRetail5</t>
-  </si>
-  <si>
-    <t>SpecRetail6</t>
-  </si>
-  <si>
-    <t>SpecRetail7</t>
-  </si>
-  <si>
-    <t>SpecRetail8</t>
-  </si>
-  <si>
-    <t>SpecRetail9</t>
-  </si>
-  <si>
-    <t>SpecRetail10</t>
-  </si>
-  <si>
-    <t>SpecRetail11</t>
-  </si>
-  <si>
-    <t>Additional Cooler placement (Premium, Energy, Innovation)?  (Counter Top or Impulse Cooler)</t>
-  </si>
-  <si>
-    <t>SpecRetail12</t>
-  </si>
-  <si>
-    <t>CURetail1</t>
-  </si>
-  <si>
-    <t>FSOP - Micro Mart</t>
-  </si>
-  <si>
-    <t>CURetail2</t>
-  </si>
-  <si>
-    <t>CURetail3</t>
-  </si>
-  <si>
-    <t>CURetail4</t>
-  </si>
-  <si>
-    <t>CURetail5</t>
-  </si>
-  <si>
-    <t>CURetail6</t>
-  </si>
-  <si>
-    <t>CURetail7</t>
-  </si>
-  <si>
-    <t>CURetail8</t>
-  </si>
-  <si>
-    <t>CURetail9</t>
-  </si>
-  <si>
-    <t>CURetail10</t>
-  </si>
-  <si>
-    <t>CURetail11</t>
-  </si>
-  <si>
-    <t>Additional Cooler placement (Premium, Energy, Breakfast, Innovation)?  (Counter Top or Impulse cooler)</t>
-  </si>
-  <si>
-    <t>CURetail12</t>
-  </si>
-  <si>
-    <t>Restaurant1</t>
-  </si>
-  <si>
-    <t>FSOP - Restaurant</t>
-  </si>
-  <si>
-    <t>Restaurant2</t>
-  </si>
-  <si>
-    <t>Restaurant3</t>
-  </si>
-  <si>
-    <t>Restaurant4</t>
-  </si>
-  <si>
-    <t>Restaurant5</t>
-  </si>
-  <si>
-    <t>Are all Coca-Cola core brands available?  (Coke markets (KO, DK, KOZ, SP,GP, DAS or SW); Dr Pepper markets (KO, DK, KOZ, SP,DP,GP, DAS or SW); [Fountain Outlets pass with 4 Core SSD:  KO, DK, KOZ, SP:  Plus DP in DP markets)</t>
-  </si>
-  <si>
-    <t>Restaurant6</t>
-  </si>
-  <si>
-    <t>Restaurant7</t>
-  </si>
-  <si>
-    <t>Is KO the Exclusive Still Beverage offered in the Outlet?  (Includes all packages, Core Brands, Secondary Brands) (Restaurant must have at a minimum: GPT (Brewed or B/C), Bottled Water (Dasani or SW))</t>
-  </si>
-  <si>
-    <t>Restaurant8</t>
-  </si>
-  <si>
-    <t>Restaurant9</t>
-  </si>
-  <si>
-    <t>Restaurant10</t>
-  </si>
-  <si>
     <t>Restaurant11</t>
   </si>
   <si>
@@ -1316,7 +1343,7 @@
     <t>Vending3</t>
   </si>
   <si>
-    <t>Core Brands + Dasani available in core SPK vender?  (Are all Coca-Cola core brands available?  Coca-Cola markets: KO, DKO and/or KOZ, SP, GP, DAS.  Dr Pepper markets: include Dr Pepper as a core brand.   If vender(s) are at secondary schools, the vender(s) comply with USDA guidelines.)</t>
+    <t>Core Brands + Dasani available in core SPK vender?  (Are all Coca-Cola core brands available?  Coca-Cola markets: KO, DKO and/or KOZ, SP, GP, DAS.  Dr Pepper markets: include Dr Pepper as a core brand.  If can vender, Gold Peak will not be available. If vender(s) are at secondary schools, the vender(s) comply with USDA guidelines.)</t>
   </si>
   <si>
     <t>Vending4</t>
@@ -1826,9 +1853,6 @@
   </si>
   <si>
     <t>Question 21: Are coolers with our products in the Best position in the checkout area &gt; = primary competition ? ( Objective is to be in first, best locations. If they are shared coolers do we have our "MARKET SHARE" of space)</t>
-  </si>
-  <si>
-    <t>Are all Coca-Cola core brands available?  (Outlet serves ALL 7 brands (CC Mkts) (KO, DK, KOZ, SP,GP, DAS); Outlet serves ALL 8 brands (CC/DP Mkts) (KO, DK, KOZ, SP,DP,GP, DAS); Fountain Outlets pass with 4 Core SSD:  KO, DK, KOZ, SP:  Plus DP in DP markets)</t>
   </si>
   <si>
     <t>Clear on Calorie's Messaging present?  (If clear on calorie's messaging is present somewhere on the vender (example: sticker on top right corner).  All venders in a vending bank must contain "Clear on Calorie" messaging.)</t>
@@ -2053,15 +2077,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2177,14 +2201,14 @@
   </sheetPr>
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B258" activeCellId="0" sqref="B258"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B196" activeCellId="0" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7611336032389"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -7289,7 +7313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
         <v>306</v>
       </c>
@@ -7464,7 +7488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
         <v>316</v>
       </c>
@@ -7814,7 +7838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="s">
         <v>332</v>
       </c>
@@ -8024,7 +8048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="s">
         <v>341</v>
       </c>
@@ -8204,7 +8228,7 @@
         <v>348</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>15</v>
@@ -8236,10 +8260,10 @@
     </row>
     <row r="173" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>15</v>
@@ -8252,7 +8276,7 @@
         <v>17</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H173" s="7" t="n">
         <v>1</v>
@@ -8271,7 +8295,7 @@
     </row>
     <row r="174" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>319</v>
@@ -8287,7 +8311,7 @@
         <v>17</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H174" s="7" t="n">
         <v>1</v>
@@ -8306,7 +8330,7 @@
     </row>
     <row r="175" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>321</v>
@@ -8322,7 +8346,7 @@
         <v>17</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H175" s="7" t="n">
         <v>1</v>
@@ -8341,7 +8365,7 @@
     </row>
     <row r="176" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>298</v>
@@ -8350,14 +8374,14 @@
         <v>15</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H176" s="7" t="n">
         <v>1</v>
@@ -8376,7 +8400,7 @@
     </row>
     <row r="177" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>301</v>
@@ -8385,14 +8409,14 @@
         <v>15</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H177" s="7" t="n">
         <v>1</v>
@@ -8411,7 +8435,7 @@
     </row>
     <row r="178" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>303</v>
@@ -8420,14 +8444,14 @@
         <v>15</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H178" s="7" t="n">
         <v>1</v>
@@ -8446,7 +8470,7 @@
     </row>
     <row r="179" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>305</v>
@@ -8455,14 +8479,14 @@
         <v>15</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H179" s="7" t="n">
         <v>1</v>
@@ -8479,25 +8503,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H180" s="7" t="n">
         <v>1</v>
@@ -8516,7 +8540,7 @@
     </row>
     <row r="181" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>309</v>
@@ -8525,14 +8549,14 @@
         <v>15</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H181" s="7" t="n">
         <v>1</v>
@@ -8551,7 +8575,7 @@
     </row>
     <row r="182" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>311</v>
@@ -8560,14 +8584,14 @@
         <v>15</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H182" s="7" t="n">
         <v>1</v>
@@ -8586,7 +8610,7 @@
     </row>
     <row r="183" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>313</v>
@@ -8595,14 +8619,14 @@
         <v>15</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H183" s="7" t="n">
         <v>1</v>
@@ -8621,23 +8645,23 @@
     </row>
     <row r="184" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H184" s="7" t="n">
         <v>1</v>
@@ -8656,23 +8680,23 @@
     </row>
     <row r="185" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H185" s="7" t="n">
         <v>1</v>
@@ -8691,7 +8715,7 @@
     </row>
     <row r="186" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>319</v>
@@ -8700,14 +8724,14 @@
         <v>15</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H186" s="7" t="n">
         <v>1</v>
@@ -8726,7 +8750,7 @@
     </row>
     <row r="187" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>321</v>
@@ -8735,14 +8759,14 @@
         <v>15</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H187" s="7" t="n">
         <v>1</v>
@@ -8761,7 +8785,7 @@
     </row>
     <row r="188" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>298</v>
@@ -8770,14 +8794,14 @@
         <v>15</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H188" s="7" t="n">
         <v>1</v>
@@ -8796,7 +8820,7 @@
     </row>
     <row r="189" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>301</v>
@@ -8805,14 +8829,14 @@
         <v>15</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H189" s="7" t="n">
         <v>1</v>
@@ -8831,7 +8855,7 @@
     </row>
     <row r="190" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>303</v>
@@ -8840,14 +8864,14 @@
         <v>15</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H190" s="7" t="n">
         <v>1</v>
@@ -8866,7 +8890,7 @@
     </row>
     <row r="191" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B191" s="16" t="s">
         <v>305</v>
@@ -8875,14 +8899,14 @@
         <v>15</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H191" s="7" t="n">
         <v>1</v>
@@ -8899,25 +8923,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H192" s="7" t="n">
         <v>1</v>
@@ -8936,7 +8960,7 @@
     </row>
     <row r="193" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>309</v>
@@ -8945,14 +8969,14 @@
         <v>15</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H193" s="7" t="n">
         <v>1</v>
@@ -8971,7 +8995,7 @@
     </row>
     <row r="194" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>311</v>
@@ -8980,14 +9004,14 @@
         <v>15</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H194" s="7" t="n">
         <v>1</v>
@@ -9006,7 +9030,7 @@
     </row>
     <row r="195" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>313</v>
@@ -9015,14 +9039,14 @@
         <v>15</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H195" s="7" t="n">
         <v>1</v>
@@ -9039,25 +9063,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H196" s="7" t="n">
         <v>1</v>
@@ -9076,23 +9100,23 @@
     </row>
     <row r="197" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>317</v>
+        <v>382</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H197" s="7" t="n">
         <v>1</v>
@@ -9111,7 +9135,7 @@
     </row>
     <row r="198" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>319</v>
@@ -9120,14 +9144,14 @@
         <v>15</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H198" s="7" t="n">
         <v>1</v>
@@ -9146,7 +9170,7 @@
     </row>
     <row r="199" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>321</v>
@@ -9155,14 +9179,14 @@
         <v>15</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H199" s="7" t="n">
         <v>1</v>
@@ -9181,7 +9205,7 @@
     </row>
     <row r="200" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>298</v>
@@ -9190,14 +9214,14 @@
         <v>15</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H200" s="7" t="n">
         <v>1</v>
@@ -9216,7 +9240,7 @@
     </row>
     <row r="201" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>301</v>
@@ -9225,14 +9249,14 @@
         <v>15</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H201" s="7" t="n">
         <v>1</v>
@@ -9251,7 +9275,7 @@
     </row>
     <row r="202" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>303</v>
@@ -9260,14 +9284,14 @@
         <v>15</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H202" s="7" t="n">
         <v>1</v>
@@ -9286,7 +9310,7 @@
     </row>
     <row r="203" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B203" s="14" t="s">
         <v>305</v>
@@ -9295,14 +9319,14 @@
         <v>15</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H203" s="7" t="n">
         <v>1</v>
@@ -9319,25 +9343,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D204" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H204" s="7" t="n">
         <v>1</v>
@@ -9356,7 +9380,7 @@
     </row>
     <row r="205" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>309</v>
@@ -9365,14 +9389,14 @@
         <v>15</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H205" s="7" t="n">
         <v>1</v>
@@ -9391,7 +9415,7 @@
     </row>
     <row r="206" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>311</v>
@@ -9400,14 +9424,14 @@
         <v>15</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E206" s="7"/>
       <c r="F206" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H206" s="7" t="n">
         <v>1</v>
@@ -9426,7 +9450,7 @@
     </row>
     <row r="207" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B207" s="14" t="s">
         <v>313</v>
@@ -9435,14 +9459,14 @@
         <v>15</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H207" s="7" t="n">
         <v>1</v>
@@ -9461,7 +9485,7 @@
     </row>
     <row r="208" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>347</v>
@@ -9470,14 +9494,14 @@
         <v>15</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H208" s="7" t="n">
         <v>1</v>
@@ -9494,25 +9518,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H209" s="7" t="n">
         <v>1</v>
@@ -9531,23 +9555,23 @@
     </row>
     <row r="210" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H210" s="7" t="n">
         <v>1</v>
@@ -9566,7 +9590,7 @@
     </row>
     <row r="211" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>321</v>
@@ -9575,14 +9599,14 @@
         <v>15</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H211" s="7" t="n">
         <v>1</v>
@@ -9601,7 +9625,7 @@
     </row>
     <row r="212" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>298</v>
@@ -9610,14 +9634,14 @@
         <v>15</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H212" s="7" t="n">
         <v>1</v>
@@ -9636,7 +9660,7 @@
     </row>
     <row r="213" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B213" s="14" t="s">
         <v>301</v>
@@ -9645,14 +9669,14 @@
         <v>15</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H213" s="7" t="n">
         <v>1</v>
@@ -9671,7 +9695,7 @@
     </row>
     <row r="214" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>303</v>
@@ -9680,14 +9704,14 @@
         <v>15</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H214" s="7" t="n">
         <v>1</v>
@@ -9706,7 +9730,7 @@
     </row>
     <row r="215" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>305</v>
@@ -9715,14 +9739,14 @@
         <v>15</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H215" s="7" t="n">
         <v>1</v>
@@ -9739,25 +9763,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H216" s="7" t="n">
         <v>1</v>
@@ -9776,7 +9800,7 @@
     </row>
     <row r="217" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>309</v>
@@ -9785,14 +9809,14 @@
         <v>15</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H217" s="7" t="n">
         <v>1</v>
@@ -9811,7 +9835,7 @@
     </row>
     <row r="218" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>311</v>
@@ -9820,14 +9844,14 @@
         <v>15</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H218" s="7" t="n">
         <v>1</v>
@@ -9846,7 +9870,7 @@
     </row>
     <row r="219" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B219" s="14" t="s">
         <v>313</v>
@@ -9855,14 +9879,14 @@
         <v>15</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H219" s="7" t="n">
         <v>1</v>
@@ -9881,23 +9905,23 @@
     </row>
     <row r="220" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H220" s="7" t="n">
         <v>1</v>
@@ -9914,25 +9938,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H221" s="7" t="n">
         <v>1</v>
@@ -9951,23 +9975,23 @@
     </row>
     <row r="222" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E222" s="7"/>
       <c r="F222" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H222" s="7" t="n">
         <v>1</v>
@@ -9986,7 +10010,7 @@
     </row>
     <row r="223" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B223" s="14" t="s">
         <v>321</v>
@@ -9995,14 +10019,14 @@
         <v>15</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E223" s="7"/>
       <c r="F223" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H223" s="7" t="n">
         <v>1</v>
@@ -10021,7 +10045,7 @@
     </row>
     <row r="224" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>298</v>
@@ -10030,14 +10054,14 @@
         <v>15</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E224" s="7"/>
       <c r="F224" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H224" s="7" t="n">
         <v>1</v>
@@ -10056,7 +10080,7 @@
     </row>
     <row r="225" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>301</v>
@@ -10065,14 +10089,14 @@
         <v>15</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H225" s="7" t="n">
         <v>1</v>
@@ -10091,7 +10115,7 @@
     </row>
     <row r="226" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>303</v>
@@ -10100,14 +10124,14 @@
         <v>15</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H226" s="7" t="n">
         <v>1</v>
@@ -10126,7 +10150,7 @@
     </row>
     <row r="227" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>305</v>
@@ -10135,14 +10159,14 @@
         <v>15</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H227" s="7" t="n">
         <v>1</v>
@@ -10161,23 +10185,23 @@
     </row>
     <row r="228" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B228" s="17" t="s">
-        <v>415</v>
+        <v>422</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H228" s="7" t="n">
         <v>1</v>
@@ -10196,7 +10220,7 @@
     </row>
     <row r="229" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>309</v>
@@ -10205,14 +10229,14 @@
         <v>15</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H229" s="7" t="n">
         <v>1</v>
@@ -10231,23 +10255,23 @@
     </row>
     <row r="230" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B230" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="15" t="s">
         <v>418</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="15" t="s">
-        <v>410</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H230" s="7" t="n">
         <v>1</v>
@@ -10266,7 +10290,7 @@
     </row>
     <row r="231" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B231" s="14" t="s">
         <v>313</v>
@@ -10275,14 +10299,14 @@
         <v>15</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E231" s="7"/>
       <c r="F231" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H231" s="7" t="n">
         <v>1</v>
@@ -10301,7 +10325,7 @@
     </row>
     <row r="232" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B232" s="16" t="s">
         <v>315</v>
@@ -10310,14 +10334,14 @@
         <v>15</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H232" s="7" t="n">
         <v>1</v>
@@ -10336,23 +10360,23 @@
     </row>
     <row r="233" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H233" s="7" t="n">
         <v>1</v>
@@ -10371,7 +10395,7 @@
     </row>
     <row r="234" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>319</v>
@@ -10380,14 +10404,14 @@
         <v>15</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E234" s="7"/>
       <c r="F234" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H234" s="7" t="n">
         <v>1</v>
@@ -10406,7 +10430,7 @@
     </row>
     <row r="235" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B235" s="14" t="s">
         <v>321</v>
@@ -10415,14 +10439,14 @@
         <v>15</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E235" s="7"/>
       <c r="F235" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H235" s="7" t="n">
         <v>1</v>
@@ -10441,23 +10465,23 @@
     </row>
     <row r="236" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B236" s="18" t="s">
-        <v>425</v>
+        <v>433</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E236" s="7"/>
       <c r="F236" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H236" s="7" t="n">
         <v>1</v>
@@ -10476,23 +10500,23 @@
     </row>
     <row r="237" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="B237" s="18" t="s">
-        <v>428</v>
+        <v>436</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E237" s="7"/>
       <c r="F237" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H237" s="7" t="n">
         <v>1</v>
@@ -10509,25 +10533,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="B238" s="18" t="s">
-        <v>430</v>
+        <v>438</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>439</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H238" s="7" t="n">
         <v>1</v>
@@ -10546,23 +10570,23 @@
     </row>
     <row r="239" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>432</v>
+        <v>440</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>441</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H239" s="7" t="n">
         <v>1</v>
@@ -10581,23 +10605,23 @@
     </row>
     <row r="240" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H240" s="7" t="n">
         <v>1</v>
@@ -10616,23 +10640,23 @@
     </row>
     <row r="241" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="15" t="s">
         <v>435</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D241" s="15" t="s">
-        <v>426</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H241" s="7" t="n">
         <v>1</v>
@@ -10651,23 +10675,23 @@
     </row>
     <row r="242" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>438</v>
+        <v>446</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H242" s="7" t="n">
         <v>1</v>
@@ -10686,23 +10710,23 @@
     </row>
     <row r="243" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B243" s="18" t="s">
-        <v>440</v>
+        <v>448</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>449</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E243" s="7"/>
       <c r="F243" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H243" s="7" t="n">
         <v>1</v>
@@ -10721,23 +10745,23 @@
     </row>
     <row r="244" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B244" s="18" t="s">
-        <v>442</v>
+        <v>450</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>451</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E244" s="7"/>
       <c r="F244" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H244" s="7" t="n">
         <v>1</v>
@@ -10756,23 +10780,23 @@
     </row>
     <row r="245" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>444</v>
+        <v>452</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>453</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H245" s="7" t="n">
         <v>1</v>
@@ -10791,23 +10815,23 @@
     </row>
     <row r="246" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B246" s="18" t="s">
-        <v>446</v>
+        <v>454</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E246" s="7"/>
       <c r="F246" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H246" s="7" t="n">
         <v>1</v>
@@ -10825,8 +10849,8 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="19" t="s">
-        <v>447</v>
+      <c r="A247" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="B247" s="20" t="s">
         <v>298</v>
@@ -10835,13 +10859,13 @@
         <v>15</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G247" s="19" t="s">
-        <v>447</v>
+      <c r="G247" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="H247" s="0" t="n">
         <v>1</v>
@@ -10849,7 +10873,7 @@
       <c r="J247" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L247" s="19" t="n">
+      <c r="L247" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M247" s="7" t="s">
@@ -10857,8 +10881,8 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="19" t="s">
-        <v>449</v>
+      <c r="A248" s="20" t="s">
+        <v>458</v>
       </c>
       <c r="B248" s="20" t="s">
         <v>301</v>
@@ -10867,13 +10891,13 @@
         <v>15</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G248" s="19" t="s">
-        <v>449</v>
+      <c r="G248" s="20" t="s">
+        <v>458</v>
       </c>
       <c r="H248" s="0" t="n">
         <v>1</v>
@@ -10881,7 +10905,7 @@
       <c r="J248" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L248" s="19" t="n">
+      <c r="L248" s="20" t="n">
         <v>10</v>
       </c>
       <c r="M248" s="7" t="s">
@@ -10889,8 +10913,8 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="19" t="s">
-        <v>450</v>
+      <c r="A249" s="20" t="s">
+        <v>459</v>
       </c>
       <c r="B249" s="20" t="s">
         <v>303</v>
@@ -10899,13 +10923,13 @@
         <v>15</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G249" s="19" t="s">
-        <v>450</v>
+      <c r="G249" s="20" t="s">
+        <v>459</v>
       </c>
       <c r="H249" s="0" t="n">
         <v>1</v>
@@ -10913,7 +10937,7 @@
       <c r="J249" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L249" s="19" t="n">
+      <c r="L249" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M249" s="7" t="s">
@@ -10921,8 +10945,8 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="19" t="s">
-        <v>451</v>
+      <c r="A250" s="20" t="s">
+        <v>460</v>
       </c>
       <c r="B250" s="20" t="s">
         <v>305</v>
@@ -10931,13 +10955,13 @@
         <v>15</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G250" s="19" t="s">
-        <v>451</v>
+      <c r="G250" s="20" t="s">
+        <v>460</v>
       </c>
       <c r="H250" s="0" t="n">
         <v>1</v>
@@ -10945,7 +10969,7 @@
       <c r="J250" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L250" s="19" t="n">
+      <c r="L250" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M250" s="7" t="s">
@@ -10953,23 +10977,23 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="19" t="s">
-        <v>452</v>
+      <c r="A251" s="20" t="s">
+        <v>461</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G251" s="19" t="s">
-        <v>452</v>
+      <c r="G251" s="20" t="s">
+        <v>461</v>
       </c>
       <c r="H251" s="0" t="n">
         <v>1</v>
@@ -10977,7 +11001,7 @@
       <c r="J251" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L251" s="19" t="n">
+      <c r="L251" s="20" t="n">
         <v>20</v>
       </c>
       <c r="M251" s="7" t="s">
@@ -10985,8 +11009,8 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="19" t="s">
-        <v>454</v>
+      <c r="A252" s="20" t="s">
+        <v>463</v>
       </c>
       <c r="B252" s="20" t="s">
         <v>309</v>
@@ -10995,13 +11019,13 @@
         <v>15</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G252" s="19" t="s">
-        <v>454</v>
+      <c r="G252" s="20" t="s">
+        <v>463</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>1</v>
@@ -11009,7 +11033,7 @@
       <c r="J252" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L252" s="19" t="n">
+      <c r="L252" s="20" t="n">
         <v>10</v>
       </c>
       <c r="M252" s="7" t="s">
@@ -11017,8 +11041,8 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="19" t="s">
-        <v>455</v>
+      <c r="A253" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="B253" s="20" t="s">
         <v>311</v>
@@ -11027,13 +11051,13 @@
         <v>15</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G253" s="19" t="s">
-        <v>455</v>
+      <c r="G253" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="H253" s="0" t="n">
         <v>1</v>
@@ -11041,7 +11065,7 @@
       <c r="J253" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L253" s="19" t="n">
+      <c r="L253" s="20" t="n">
         <v>10</v>
       </c>
       <c r="M253" s="7" t="s">
@@ -11049,8 +11073,8 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="19" t="s">
-        <v>456</v>
+      <c r="A254" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="B254" s="20" t="s">
         <v>313</v>
@@ -11059,13 +11083,13 @@
         <v>15</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G254" s="19" t="s">
-        <v>456</v>
+      <c r="G254" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="H254" s="0" t="n">
         <v>1</v>
@@ -11073,7 +11097,7 @@
       <c r="J254" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L254" s="19" t="n">
+      <c r="L254" s="20" t="n">
         <v>10</v>
       </c>
       <c r="M254" s="7" t="s">
@@ -11081,8 +11105,8 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="19" t="s">
-        <v>457</v>
+      <c r="A255" s="20" t="s">
+        <v>466</v>
       </c>
       <c r="B255" s="20" t="s">
         <v>315</v>
@@ -11091,13 +11115,13 @@
         <v>15</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F255" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G255" s="19" t="s">
-        <v>457</v>
+      <c r="G255" s="20" t="s">
+        <v>466</v>
       </c>
       <c r="H255" s="0" t="n">
         <v>1</v>
@@ -11105,7 +11129,7 @@
       <c r="J255" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L255" s="19" t="n">
+      <c r="L255" s="20" t="n">
         <v>10</v>
       </c>
       <c r="M255" s="7" t="s">
@@ -11114,22 +11138,22 @@
     </row>
     <row r="256" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="20" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F256" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H256" s="0" t="n">
         <v>1</v>
@@ -11146,7 +11170,7 @@
     </row>
     <row r="257" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="20" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B257" s="20" t="s">
         <v>319</v>
@@ -11155,13 +11179,13 @@
         <v>15</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F257" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G257" s="20" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H257" s="0" t="n">
         <v>1</v>
@@ -11177,8 +11201,8 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="19" t="s">
-        <v>461</v>
+      <c r="A258" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="B258" s="20" t="s">
         <v>321</v>
@@ -11187,13 +11211,13 @@
         <v>15</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F258" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G258" s="19" t="s">
-        <v>461</v>
+      <c r="G258" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="H258" s="0" t="n">
         <v>1</v>
@@ -11201,7 +11225,7 @@
       <c r="J258" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L258" s="19" t="n">
+      <c r="L258" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M258" s="7" t="s">
@@ -11226,15 +11250,15 @@
   </sheetPr>
   <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A250" activeCellId="0" sqref="A250"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -11270,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11296,11 +11320,11 @@
         <v>14</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -11313,11 +11337,11 @@
         <v>21</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="10" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -11330,11 +11354,11 @@
         <v>21</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="10" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -11347,11 +11371,11 @@
         <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -11364,11 +11388,11 @@
         <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -11381,11 +11405,11 @@
         <v>27</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -11398,11 +11422,11 @@
         <v>29</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -11415,11 +11439,11 @@
         <v>31</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -11432,11 +11456,11 @@
         <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -11449,11 +11473,11 @@
         <v>35</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -11466,11 +11490,11 @@
         <v>37</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -11483,11 +11507,11 @@
         <v>39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -11500,11 +11524,11 @@
         <v>41</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -11517,11 +11541,11 @@
         <v>43</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -11534,11 +11558,11 @@
         <v>45</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -11551,11 +11575,11 @@
         <v>47</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -11568,11 +11592,11 @@
         <v>49</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -11585,11 +11609,11 @@
         <v>51</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -11602,11 +11626,11 @@
         <v>53</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -11619,11 +11643,11 @@
         <v>55</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -11636,11 +11660,11 @@
         <v>57</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -11653,11 +11677,11 @@
         <v>59</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -11670,11 +11694,11 @@
         <v>61</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -11687,11 +11711,11 @@
         <v>63</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -11704,11 +11728,11 @@
         <v>65</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -11721,11 +11745,11 @@
         <v>67</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -11738,11 +11762,11 @@
         <v>69</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -11755,11 +11779,11 @@
         <v>71</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -11772,11 +11796,11 @@
         <v>73</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -11789,11 +11813,11 @@
         <v>75</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -11806,11 +11830,11 @@
         <v>77</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -11823,11 +11847,11 @@
         <v>79</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -11840,11 +11864,11 @@
         <v>81</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -11857,11 +11881,11 @@
         <v>83</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -11874,11 +11898,11 @@
         <v>86</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -11891,11 +11915,11 @@
         <v>88</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -11908,11 +11932,11 @@
         <v>90</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -11925,11 +11949,11 @@
         <v>92</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -11942,11 +11966,11 @@
         <v>94</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -11959,11 +11983,11 @@
         <v>96</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -11976,11 +12000,11 @@
         <v>98</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -11993,11 +12017,11 @@
         <v>100</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -12010,11 +12034,11 @@
         <v>102</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -12027,11 +12051,11 @@
         <v>104</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -12044,11 +12068,11 @@
         <v>106</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -12061,11 +12085,11 @@
         <v>108</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -12078,11 +12102,11 @@
         <v>110</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -12095,11 +12119,11 @@
         <v>112</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -12112,11 +12136,11 @@
         <v>51</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -12129,11 +12153,11 @@
         <v>115</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -12150,7 +12174,7 @@
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -12163,11 +12187,11 @@
         <v>119</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -12180,11 +12204,11 @@
         <v>121</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -12197,11 +12221,11 @@
         <v>124</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -12214,11 +12238,11 @@
         <v>126</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -12231,11 +12255,11 @@
         <v>128</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -12252,7 +12276,7 @@
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -12265,11 +12289,11 @@
         <v>132</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
@@ -12282,11 +12306,11 @@
         <v>134</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
@@ -12299,11 +12323,11 @@
         <v>136</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
@@ -12316,11 +12340,11 @@
         <v>138</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
@@ -12333,11 +12357,11 @@
         <v>140</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
@@ -12350,11 +12374,11 @@
         <v>142</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
@@ -12367,11 +12391,11 @@
         <v>144</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
@@ -12388,7 +12412,7 @@
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
@@ -12401,11 +12425,11 @@
         <v>148</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
@@ -12418,11 +12442,11 @@
         <v>150</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -12435,11 +12459,11 @@
         <v>152</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -12452,11 +12476,11 @@
         <v>154</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -12469,11 +12493,11 @@
         <v>156</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
@@ -12486,11 +12510,11 @@
         <v>158</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
@@ -12503,11 +12527,11 @@
         <v>160</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
@@ -12520,11 +12544,11 @@
         <v>162</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
@@ -12537,11 +12561,11 @@
         <v>164</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
@@ -12554,11 +12578,11 @@
         <v>166</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
@@ -12571,11 +12595,11 @@
         <v>168</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -12588,11 +12612,11 @@
         <v>170</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -12605,11 +12629,11 @@
         <v>172</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -12622,11 +12646,11 @@
         <v>174</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -12639,11 +12663,11 @@
         <v>176</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -12656,11 +12680,11 @@
         <v>178</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
@@ -12673,11 +12697,11 @@
         <v>180</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
@@ -12690,11 +12714,11 @@
         <v>182</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -12707,11 +12731,11 @@
         <v>83</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
@@ -12724,11 +12748,11 @@
         <v>186</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -12741,11 +12765,11 @@
         <v>188</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D90" s="25"/>
       <c r="E90" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -12758,11 +12782,11 @@
         <v>190</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
@@ -12775,11 +12799,11 @@
         <v>192</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
@@ -12792,11 +12816,11 @@
         <v>194</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -12809,11 +12833,11 @@
         <v>98</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
@@ -12826,11 +12850,11 @@
         <v>197</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D95" s="25"/>
       <c r="E95" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
@@ -12843,11 +12867,11 @@
         <v>199</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D96" s="25"/>
       <c r="E96" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -12860,11 +12884,11 @@
         <v>201</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
@@ -12877,11 +12901,11 @@
         <v>203</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D98" s="25"/>
       <c r="E98" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
@@ -12894,11 +12918,11 @@
         <v>205</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D99" s="25"/>
       <c r="E99" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -12911,11 +12935,11 @@
         <v>207</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
@@ -12928,11 +12952,11 @@
         <v>209</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D101" s="25"/>
       <c r="E101" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -12945,11 +12969,11 @@
         <v>211</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="D102" s="25"/>
       <c r="E102" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -12962,11 +12986,11 @@
         <v>213</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
@@ -12979,11 +13003,11 @@
         <v>215</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
@@ -12996,11 +13020,11 @@
         <v>217</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
@@ -13013,11 +13037,11 @@
         <v>219</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
@@ -13030,11 +13054,11 @@
         <v>222</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
@@ -13047,11 +13071,11 @@
         <v>224</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
@@ -13064,11 +13088,11 @@
         <v>226</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
@@ -13081,11 +13105,11 @@
         <v>228</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
@@ -13098,11 +13122,11 @@
         <v>230</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
@@ -13115,11 +13139,11 @@
         <v>232</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D112" s="25"/>
       <c r="E112" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
@@ -13132,11 +13156,11 @@
         <v>234</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D113" s="25"/>
       <c r="E113" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
@@ -13149,11 +13173,11 @@
         <v>236</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
@@ -13166,11 +13190,11 @@
         <v>238</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
@@ -13183,11 +13207,11 @@
         <v>240</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
@@ -13204,7 +13228,7 @@
       </c>
       <c r="D117" s="25"/>
       <c r="E117" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
@@ -13217,11 +13241,11 @@
         <v>244</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
@@ -13234,11 +13258,11 @@
         <v>246</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
@@ -13251,11 +13275,11 @@
         <v>248</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D120" s="25"/>
       <c r="E120" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
@@ -13268,11 +13292,11 @@
         <v>250</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
@@ -13285,11 +13309,11 @@
         <v>252</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
@@ -13302,11 +13326,11 @@
         <v>222</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
@@ -13319,11 +13343,11 @@
         <v>256</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
@@ -13336,11 +13360,11 @@
         <v>258</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
@@ -13353,11 +13377,11 @@
         <v>260</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
@@ -13370,11 +13394,11 @@
         <v>262</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D127" s="25"/>
       <c r="E127" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
@@ -13387,11 +13411,11 @@
         <v>264</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D128" s="25"/>
       <c r="E128" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
@@ -13404,11 +13428,11 @@
         <v>266</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
@@ -13421,11 +13445,11 @@
         <v>268</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
@@ -13438,11 +13462,11 @@
         <v>270</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
@@ -13455,11 +13479,11 @@
         <v>272</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
@@ -13472,11 +13496,11 @@
         <v>274</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
@@ -13489,11 +13513,11 @@
         <v>276</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
@@ -13506,11 +13530,11 @@
         <v>278</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
@@ -13523,11 +13547,11 @@
         <v>280</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
@@ -13540,11 +13564,11 @@
         <v>282</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
@@ -13557,11 +13581,11 @@
         <v>284</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
@@ -13574,11 +13598,11 @@
         <v>286</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
@@ -13591,11 +13615,11 @@
         <v>288</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
@@ -13608,11 +13632,11 @@
         <v>290</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -13625,11 +13649,11 @@
         <v>292</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
@@ -13641,12 +13665,12 @@
       <c r="B143" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>598</v>
+      <c r="C143" s="19" t="s">
+        <v>607</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
@@ -13659,11 +13683,11 @@
         <v>296</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
@@ -13680,7 +13704,7 @@
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
@@ -13697,7 +13721,7 @@
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
@@ -13714,7 +13738,7 @@
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
@@ -13731,12 +13755,12 @@
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
     </row>
-    <row r="149" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
         <v>306</v>
       </c>
@@ -13748,7 +13772,7 @@
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
@@ -13765,7 +13789,7 @@
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
@@ -13782,7 +13806,7 @@
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
@@ -13799,7 +13823,7 @@
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
@@ -13816,12 +13840,12 @@
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
     </row>
-    <row r="154" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
         <v>316</v>
       </c>
@@ -13833,7 +13857,7 @@
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
@@ -13850,7 +13874,7 @@
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
@@ -13867,7 +13891,7 @@
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
@@ -13884,7 +13908,7 @@
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
@@ -13901,7 +13925,7 @@
       </c>
       <c r="D158" s="25"/>
       <c r="E158" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
@@ -13918,7 +13942,7 @@
       </c>
       <c r="D159" s="25"/>
       <c r="E159" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
@@ -13935,7 +13959,7 @@
       </c>
       <c r="D160" s="25"/>
       <c r="E160" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
@@ -13952,7 +13976,7 @@
       </c>
       <c r="D161" s="25"/>
       <c r="E161" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
@@ -13969,7 +13993,7 @@
       </c>
       <c r="D162" s="25"/>
       <c r="E162" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
@@ -13986,12 +14010,12 @@
       </c>
       <c r="D163" s="25"/>
       <c r="E163" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
     </row>
-    <row r="164" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
         <v>332</v>
       </c>
@@ -14003,7 +14027,7 @@
       </c>
       <c r="D164" s="25"/>
       <c r="E164" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
@@ -14020,7 +14044,7 @@
       </c>
       <c r="D165" s="25"/>
       <c r="E165" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="13"/>
@@ -14037,7 +14061,7 @@
       </c>
       <c r="D166" s="25"/>
       <c r="E166" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
@@ -14054,7 +14078,7 @@
       </c>
       <c r="D167" s="25"/>
       <c r="E167" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
@@ -14071,7 +14095,7 @@
       </c>
       <c r="D168" s="25"/>
       <c r="E168" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
@@ -14088,12 +14112,12 @@
       </c>
       <c r="D169" s="25"/>
       <c r="E169" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
     </row>
-    <row r="170" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
         <v>341</v>
       </c>
@@ -14105,7 +14129,7 @@
       </c>
       <c r="D170" s="25"/>
       <c r="E170" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
@@ -14122,7 +14146,7 @@
       </c>
       <c r="D171" s="25"/>
       <c r="E171" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
@@ -14139,7 +14163,7 @@
       </c>
       <c r="D172" s="25"/>
       <c r="E172" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
@@ -14156,12 +14180,12 @@
       </c>
       <c r="D173" s="25"/>
       <c r="E173" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="13"/>
     </row>
-    <row r="174" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
         <v>346</v>
       </c>
@@ -14173,48 +14197,48 @@
       </c>
       <c r="D174" s="25"/>
       <c r="E174" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
     </row>
-    <row r="175" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
         <v>348</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="D175" s="25"/>
       <c r="E175" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
     </row>
     <row r="176" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D176" s="25"/>
       <c r="E176" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
     </row>
     <row r="177" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>319</v>
@@ -14224,14 +14248,14 @@
       </c>
       <c r="D177" s="25"/>
       <c r="E177" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
     </row>
     <row r="178" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>321</v>
@@ -14241,14 +14265,14 @@
       </c>
       <c r="D178" s="25"/>
       <c r="E178" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
     </row>
     <row r="179" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>298</v>
@@ -14258,14 +14282,14 @@
       </c>
       <c r="D179" s="25"/>
       <c r="E179" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
     </row>
     <row r="180" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>301</v>
@@ -14275,14 +14299,14 @@
       </c>
       <c r="D180" s="25"/>
       <c r="E180" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
     </row>
     <row r="181" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>303</v>
@@ -14292,14 +14316,14 @@
       </c>
       <c r="D181" s="25"/>
       <c r="E181" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
     </row>
     <row r="182" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>305</v>
@@ -14309,31 +14333,31 @@
       </c>
       <c r="D182" s="25"/>
       <c r="E182" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
     </row>
-    <row r="183" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D183" s="25"/>
       <c r="E183" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
     </row>
     <row r="184" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>309</v>
@@ -14343,14 +14367,14 @@
       </c>
       <c r="D184" s="25"/>
       <c r="E184" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
     </row>
     <row r="185" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>311</v>
@@ -14360,14 +14384,14 @@
       </c>
       <c r="D185" s="25"/>
       <c r="E185" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
     </row>
     <row r="186" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>313</v>
@@ -14377,48 +14401,48 @@
       </c>
       <c r="D186" s="25"/>
       <c r="E186" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
     </row>
     <row r="187" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D187" s="25"/>
       <c r="E187" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
     </row>
-    <row r="188" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="D188" s="25"/>
       <c r="E188" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="13"/>
     </row>
     <row r="189" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>319</v>
@@ -14428,14 +14452,14 @@
       </c>
       <c r="D189" s="25"/>
       <c r="E189" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
     </row>
     <row r="190" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>321</v>
@@ -14445,14 +14469,14 @@
       </c>
       <c r="D190" s="25"/>
       <c r="E190" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
     </row>
     <row r="191" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>298</v>
@@ -14462,14 +14486,14 @@
       </c>
       <c r="D191" s="25"/>
       <c r="E191" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
     </row>
     <row r="192" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>301</v>
@@ -14479,14 +14503,14 @@
       </c>
       <c r="D192" s="25"/>
       <c r="E192" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
     </row>
     <row r="193" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>303</v>
@@ -14496,14 +14520,14 @@
       </c>
       <c r="D193" s="25"/>
       <c r="E193" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
     </row>
     <row r="194" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>305</v>
@@ -14513,31 +14537,31 @@
       </c>
       <c r="D194" s="25"/>
       <c r="E194" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F194" s="13"/>
       <c r="G194" s="13"/>
     </row>
-    <row r="195" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="D195" s="25"/>
       <c r="E195" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
     </row>
     <row r="196" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>309</v>
@@ -14547,14 +14571,14 @@
       </c>
       <c r="D196" s="25"/>
       <c r="E196" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
     </row>
     <row r="197" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>311</v>
@@ -14564,14 +14588,14 @@
       </c>
       <c r="D197" s="25"/>
       <c r="E197" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
     </row>
     <row r="198" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>313</v>
@@ -14581,48 +14605,48 @@
       </c>
       <c r="D198" s="25"/>
       <c r="E198" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
     </row>
-    <row r="199" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="D199" s="25"/>
       <c r="E199" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
     </row>
-    <row r="200" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C200" s="14" t="s">
-        <v>317</v>
+        <v>382</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="D200" s="25"/>
       <c r="E200" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
     </row>
     <row r="201" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>319</v>
@@ -14632,14 +14656,14 @@
       </c>
       <c r="D201" s="25"/>
       <c r="E201" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F201" s="13"/>
       <c r="G201" s="13"/>
     </row>
     <row r="202" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>321</v>
@@ -14649,14 +14673,14 @@
       </c>
       <c r="D202" s="25"/>
       <c r="E202" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F202" s="13"/>
       <c r="G202" s="13"/>
     </row>
     <row r="203" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B203" s="14" t="s">
         <v>298</v>
@@ -14666,14 +14690,14 @@
       </c>
       <c r="D203" s="25"/>
       <c r="E203" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F203" s="13"/>
       <c r="G203" s="13"/>
     </row>
     <row r="204" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>301</v>
@@ -14683,14 +14707,14 @@
       </c>
       <c r="D204" s="25"/>
       <c r="E204" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F204" s="13"/>
       <c r="G204" s="13"/>
     </row>
     <row r="205" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>303</v>
@@ -14700,14 +14724,14 @@
       </c>
       <c r="D205" s="25"/>
       <c r="E205" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
     </row>
     <row r="206" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>305</v>
@@ -14717,31 +14741,31 @@
       </c>
       <c r="D206" s="25"/>
       <c r="E206" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F206" s="13"/>
       <c r="G206" s="13"/>
     </row>
-    <row r="207" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>359</v>
+        <v>390</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>360</v>
       </c>
       <c r="D207" s="25"/>
       <c r="E207" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F207" s="13"/>
       <c r="G207" s="13"/>
     </row>
     <row r="208" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>309</v>
@@ -14751,14 +14775,14 @@
       </c>
       <c r="D208" s="25"/>
       <c r="E208" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="13"/>
     </row>
     <row r="209" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>311</v>
@@ -14768,14 +14792,14 @@
       </c>
       <c r="D209" s="25"/>
       <c r="E209" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F209" s="13"/>
       <c r="G209" s="13"/>
     </row>
     <row r="210" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>313</v>
@@ -14785,14 +14809,14 @@
       </c>
       <c r="D210" s="25"/>
       <c r="E210" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F210" s="13"/>
       <c r="G210" s="13"/>
     </row>
-    <row r="211" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>347</v>
@@ -14802,48 +14826,48 @@
       </c>
       <c r="D211" s="25"/>
       <c r="E211" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F211" s="13"/>
       <c r="G211" s="13"/>
     </row>
-    <row r="212" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="D212" s="25"/>
       <c r="E212" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F212" s="13"/>
       <c r="G212" s="13"/>
     </row>
     <row r="213" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D213" s="25"/>
       <c r="E213" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>321</v>
@@ -14853,14 +14877,14 @@
       </c>
       <c r="D214" s="25"/>
       <c r="E214" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F214" s="13"/>
       <c r="G214" s="13"/>
     </row>
     <row r="215" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>298</v>
@@ -14870,14 +14894,14 @@
       </c>
       <c r="D215" s="25"/>
       <c r="E215" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F215" s="13"/>
       <c r="G215" s="13"/>
     </row>
     <row r="216" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>301</v>
@@ -14887,14 +14911,14 @@
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F216" s="13"/>
       <c r="G216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>303</v>
@@ -14904,14 +14928,14 @@
       </c>
       <c r="D217" s="25"/>
       <c r="E217" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F217" s="13"/>
       <c r="G217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>305</v>
@@ -14921,31 +14945,31 @@
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F218" s="13"/>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
     </row>
     <row r="220" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>309</v>
@@ -14955,14 +14979,14 @@
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F220" s="13"/>
       <c r="G220" s="13"/>
     </row>
     <row r="221" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B221" s="14" t="s">
         <v>311</v>
@@ -14972,14 +14996,14 @@
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F221" s="13"/>
       <c r="G221" s="13"/>
     </row>
     <row r="222" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>313</v>
@@ -14989,65 +15013,65 @@
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F222" s="13"/>
       <c r="G222" s="13"/>
     </row>
-    <row r="223" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F223" s="13"/>
       <c r="G223" s="13"/>
     </row>
-    <row r="224" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F224" s="13"/>
       <c r="G224" s="13"/>
     </row>
     <row r="225" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F225" s="13"/>
       <c r="G225" s="13"/>
     </row>
     <row r="226" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>321</v>
@@ -15057,14 +15081,14 @@
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F226" s="13"/>
       <c r="G226" s="13"/>
     </row>
     <row r="227" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>298</v>
@@ -15074,14 +15098,14 @@
       </c>
       <c r="D227" s="25"/>
       <c r="E227" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F227" s="13"/>
       <c r="G227" s="13"/>
     </row>
     <row r="228" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>301</v>
@@ -15091,14 +15115,14 @@
       </c>
       <c r="D228" s="25"/>
       <c r="E228" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F228" s="13"/>
       <c r="G228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>303</v>
@@ -15108,14 +15132,14 @@
       </c>
       <c r="D229" s="25"/>
       <c r="E229" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F229" s="13"/>
       <c r="G229" s="13"/>
     </row>
     <row r="230" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>305</v>
@@ -15125,31 +15149,31 @@
       </c>
       <c r="D230" s="25"/>
       <c r="E230" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F230" s="13"/>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C231" s="14" t="s">
-        <v>600</v>
+        <v>422</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="D231" s="25"/>
       <c r="E231" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F231" s="13"/>
       <c r="G231" s="13"/>
     </row>
     <row r="232" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>309</v>
@@ -15159,31 +15183,31 @@
       </c>
       <c r="D232" s="25"/>
       <c r="E232" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F232" s="13"/>
       <c r="G232" s="13"/>
     </row>
-    <row r="233" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C233" s="14" t="s">
-        <v>311</v>
+        <v>425</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>426</v>
       </c>
       <c r="D233" s="25"/>
       <c r="E233" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
     </row>
     <row r="234" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>313</v>
@@ -15193,14 +15217,14 @@
       </c>
       <c r="D234" s="25"/>
       <c r="E234" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F234" s="13"/>
       <c r="G234" s="13"/>
     </row>
     <row r="235" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B235" s="16" t="s">
         <v>315</v>
@@ -15210,31 +15234,31 @@
       </c>
       <c r="D235" s="25"/>
       <c r="E235" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="13"/>
     </row>
     <row r="236" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="D236" s="25"/>
       <c r="E236" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F236" s="13"/>
       <c r="G236" s="13"/>
     </row>
     <row r="237" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="13" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B237" s="14" t="s">
         <v>319</v>
@@ -15244,14 +15268,14 @@
       </c>
       <c r="D237" s="25"/>
       <c r="E237" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F237" s="13"/>
       <c r="G237" s="13"/>
     </row>
     <row r="238" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>321</v>
@@ -15261,292 +15285,328 @@
       </c>
       <c r="D238" s="25"/>
       <c r="E238" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F238" s="13"/>
       <c r="G238" s="13"/>
     </row>
     <row r="239" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="C239" s="18" t="s">
-        <v>425</v>
+        <v>433</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="D239" s="25"/>
       <c r="E239" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F239" s="13"/>
       <c r="G239" s="13"/>
     </row>
     <row r="240" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="B240" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="C240" s="18" t="s">
-        <v>428</v>
+        <v>436</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="D240" s="25"/>
       <c r="E240" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F240" s="13"/>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="C241" s="18" t="s">
-        <v>430</v>
+        <v>438</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>439</v>
       </c>
       <c r="D241" s="25"/>
       <c r="E241" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F241" s="13"/>
       <c r="G241" s="13"/>
     </row>
     <row r="242" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="C242" s="18" t="s">
-        <v>432</v>
+        <v>440</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>441</v>
       </c>
       <c r="D242" s="25"/>
       <c r="E242" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F242" s="13"/>
       <c r="G242" s="13"/>
     </row>
     <row r="243" customFormat="false" ht="498.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F243" s="13"/>
       <c r="G243" s="13"/>
     </row>
     <row r="244" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="B244" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C244" s="18" t="s">
-        <v>436</v>
+        <v>444</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>445</v>
       </c>
       <c r="D244" s="25"/>
       <c r="E244" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F244" s="13"/>
       <c r="G244" s="13"/>
     </row>
     <row r="245" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="C245" s="18" t="s">
-        <v>438</v>
+        <v>446</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="D245" s="25"/>
       <c r="E245" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F245" s="13"/>
       <c r="G245" s="13"/>
     </row>
     <row r="246" customFormat="false" ht="632.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B246" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="C246" s="18" t="s">
-        <v>440</v>
+        <v>448</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>449</v>
       </c>
       <c r="D246" s="25"/>
       <c r="E246" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F246" s="13"/>
       <c r="G246" s="13"/>
     </row>
     <row r="247" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B247" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="C247" s="18" t="s">
-        <v>601</v>
+        <v>450</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>609</v>
       </c>
       <c r="D247" s="25"/>
       <c r="E247" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="13"/>
     </row>
     <row r="248" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B248" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C248" s="18" t="s">
-        <v>444</v>
+        <v>452</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>453</v>
       </c>
       <c r="D248" s="25"/>
       <c r="E248" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="13"/>
     </row>
     <row r="249" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B249" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C249" s="18" t="s">
-        <v>446</v>
+        <v>454</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="D249" s="25"/>
       <c r="E249" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="13"/>
     </row>
     <row r="250" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="19" t="s">
-        <v>447</v>
+      <c r="A250" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="C250" s="20" t="s">
         <v>298</v>
       </c>
+      <c r="E250" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="19" t="s">
-        <v>449</v>
+      <c r="A251" s="20" t="s">
+        <v>458</v>
       </c>
       <c r="C251" s="20" t="s">
         <v>301</v>
       </c>
+      <c r="E251" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="19" t="s">
-        <v>450</v>
+      <c r="A252" s="20" t="s">
+        <v>459</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>303</v>
       </c>
+      <c r="E252" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="19" t="s">
-        <v>451</v>
+      <c r="A253" s="20" t="s">
+        <v>460</v>
       </c>
       <c r="C253" s="20" t="s">
         <v>305</v>
       </c>
+      <c r="E253" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="19" t="s">
-        <v>452</v>
+      <c r="A254" s="20" t="s">
+        <v>461</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>453</v>
+        <v>462</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="19" t="s">
-        <v>454</v>
+      <c r="A255" s="20" t="s">
+        <v>463</v>
       </c>
       <c r="C255" s="20" t="s">
         <v>309</v>
       </c>
+      <c r="E255" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="19" t="s">
-        <v>455</v>
+      <c r="A256" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="C256" s="20" t="s">
         <v>311</v>
       </c>
+      <c r="E256" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="19" t="s">
-        <v>456</v>
+      <c r="A257" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="C257" s="20" t="s">
         <v>313</v>
       </c>
+      <c r="E257" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="19" t="s">
-        <v>457</v>
+      <c r="A258" s="20" t="s">
+        <v>466</v>
       </c>
       <c r="C258" s="20" t="s">
         <v>315</v>
       </c>
+      <c r="E258" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="20" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>459</v>
+        <v>468</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="20" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C260" s="20" t="s">
         <v>319</v>
       </c>
+      <c r="E260" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="19" t="s">
-        <v>461</v>
+      <c r="A261" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="C261" s="20" t="s">
         <v>321</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBOTTLERSUS/REDSCORE/Data/MANUAL RED SURVEY_COKE_UNITED_RS_KPI_Template_v3.5.xlsx
+++ b/Projects/CCBOTTLERSUS/REDSCORE/Data/MANUAL RED SURVEY_COKE_UNITED_RS_KPI_Template_v3.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1397,7 +1397,7 @@
     <t>QSR1</t>
   </si>
   <si>
-    <t>QSR</t>
+    <t>FSOP - QSR</t>
   </si>
   <si>
     <t>QSR2</t>
@@ -1866,7 +1866,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1916,11 +1916,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2003,12 +1998,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2081,15 +2076,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2201,14 +2188,14 @@
   </sheetPr>
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B196" activeCellId="0" sqref="B196"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D258" activeCellId="0" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -10187,7 +10174,7 @@
       <c r="A228" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B228" s="14" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -10467,7 +10454,7 @@
       <c r="A236" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="B236" s="19" t="s">
+      <c r="B236" s="18" t="s">
         <v>434</v>
       </c>
       <c r="C236" s="7" t="s">
@@ -10502,7 +10489,7 @@
       <c r="A237" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B237" s="19" t="s">
+      <c r="B237" s="18" t="s">
         <v>437</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -10537,7 +10524,7 @@
       <c r="A238" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B238" s="19" t="s">
+      <c r="B238" s="18" t="s">
         <v>439</v>
       </c>
       <c r="C238" s="7" t="s">
@@ -10572,7 +10559,7 @@
       <c r="A239" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="B239" s="19" t="s">
+      <c r="B239" s="18" t="s">
         <v>441</v>
       </c>
       <c r="C239" s="7" t="s">
@@ -10642,7 +10629,7 @@
       <c r="A241" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B241" s="19" t="s">
+      <c r="B241" s="18" t="s">
         <v>445</v>
       </c>
       <c r="C241" s="7" t="s">
@@ -10677,7 +10664,7 @@
       <c r="A242" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="B242" s="19" t="s">
+      <c r="B242" s="18" t="s">
         <v>447</v>
       </c>
       <c r="C242" s="7" t="s">
@@ -10712,7 +10699,7 @@
       <c r="A243" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="B243" s="19" t="s">
+      <c r="B243" s="18" t="s">
         <v>449</v>
       </c>
       <c r="C243" s="7" t="s">
@@ -10747,7 +10734,7 @@
       <c r="A244" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="B244" s="19" t="s">
+      <c r="B244" s="18" t="s">
         <v>451</v>
       </c>
       <c r="C244" s="7" t="s">
@@ -10782,7 +10769,7 @@
       <c r="A245" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B245" s="19" t="s">
+      <c r="B245" s="18" t="s">
         <v>453</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -10817,7 +10804,7 @@
       <c r="A246" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B246" s="19" t="s">
+      <c r="B246" s="18" t="s">
         <v>455</v>
       </c>
       <c r="C246" s="7" t="s">
@@ -10849,22 +10836,22 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="20" t="s">
+      <c r="A247" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B247" s="20" t="s">
+      <c r="B247" s="17" t="s">
         <v>298</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D247" s="0" t="s">
+      <c r="D247" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G247" s="20" t="s">
+      <c r="G247" s="17" t="s">
         <v>456</v>
       </c>
       <c r="H247" s="0" t="n">
@@ -10873,7 +10860,7 @@
       <c r="J247" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L247" s="20" t="n">
+      <c r="L247" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M247" s="7" t="s">
@@ -10881,22 +10868,22 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="20" t="s">
+      <c r="A248" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B248" s="20" t="s">
+      <c r="B248" s="17" t="s">
         <v>301</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D248" s="0" t="s">
+      <c r="D248" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G248" s="20" t="s">
+      <c r="G248" s="17" t="s">
         <v>458</v>
       </c>
       <c r="H248" s="0" t="n">
@@ -10905,7 +10892,7 @@
       <c r="J248" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L248" s="20" t="n">
+      <c r="L248" s="17" t="n">
         <v>10</v>
       </c>
       <c r="M248" s="7" t="s">
@@ -10913,22 +10900,22 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="20" t="s">
+      <c r="A249" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="B249" s="20" t="s">
+      <c r="B249" s="17" t="s">
         <v>303</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D249" s="0" t="s">
+      <c r="D249" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G249" s="20" t="s">
+      <c r="G249" s="17" t="s">
         <v>459</v>
       </c>
       <c r="H249" s="0" t="n">
@@ -10937,7 +10924,7 @@
       <c r="J249" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L249" s="20" t="n">
+      <c r="L249" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M249" s="7" t="s">
@@ -10945,22 +10932,22 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="20" t="s">
+      <c r="A250" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B250" s="20" t="s">
+      <c r="B250" s="17" t="s">
         <v>305</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="D250" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G250" s="20" t="s">
+      <c r="G250" s="17" t="s">
         <v>460</v>
       </c>
       <c r="H250" s="0" t="n">
@@ -10969,7 +10956,7 @@
       <c r="J250" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L250" s="20" t="n">
+      <c r="L250" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M250" s="7" t="s">
@@ -10977,22 +10964,22 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="20" t="s">
+      <c r="A251" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B251" s="20" t="s">
+      <c r="B251" s="17" t="s">
         <v>462</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D251" s="0" t="s">
+      <c r="D251" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G251" s="20" t="s">
+      <c r="G251" s="17" t="s">
         <v>461</v>
       </c>
       <c r="H251" s="0" t="n">
@@ -11001,7 +10988,7 @@
       <c r="J251" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L251" s="20" t="n">
+      <c r="L251" s="17" t="n">
         <v>20</v>
       </c>
       <c r="M251" s="7" t="s">
@@ -11009,22 +10996,22 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="20" t="s">
+      <c r="A252" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="B252" s="20" t="s">
+      <c r="B252" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D252" s="0" t="s">
+      <c r="D252" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G252" s="20" t="s">
+      <c r="G252" s="17" t="s">
         <v>463</v>
       </c>
       <c r="H252" s="0" t="n">
@@ -11033,7 +11020,7 @@
       <c r="J252" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L252" s="20" t="n">
+      <c r="L252" s="17" t="n">
         <v>10</v>
       </c>
       <c r="M252" s="7" t="s">
@@ -11041,22 +11028,22 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="20" t="s">
+      <c r="A253" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="B253" s="20" t="s">
+      <c r="B253" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D253" s="0" t="s">
+      <c r="D253" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G253" s="20" t="s">
+      <c r="G253" s="17" t="s">
         <v>464</v>
       </c>
       <c r="H253" s="0" t="n">
@@ -11065,7 +11052,7 @@
       <c r="J253" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L253" s="20" t="n">
+      <c r="L253" s="17" t="n">
         <v>10</v>
       </c>
       <c r="M253" s="7" t="s">
@@ -11073,22 +11060,22 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="20" t="s">
+      <c r="A254" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B254" s="20" t="s">
+      <c r="B254" s="17" t="s">
         <v>313</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="D254" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G254" s="20" t="s">
+      <c r="G254" s="17" t="s">
         <v>465</v>
       </c>
       <c r="H254" s="0" t="n">
@@ -11097,7 +11084,7 @@
       <c r="J254" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L254" s="20" t="n">
+      <c r="L254" s="17" t="n">
         <v>10</v>
       </c>
       <c r="M254" s="7" t="s">
@@ -11105,22 +11092,22 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="20" t="s">
+      <c r="A255" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B255" s="20" t="s">
+      <c r="B255" s="17" t="s">
         <v>315</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D255" s="0" t="s">
+      <c r="D255" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F255" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G255" s="20" t="s">
+      <c r="G255" s="17" t="s">
         <v>466</v>
       </c>
       <c r="H255" s="0" t="n">
@@ -11129,7 +11116,7 @@
       <c r="J255" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L255" s="20" t="n">
+      <c r="L255" s="17" t="n">
         <v>10</v>
       </c>
       <c r="M255" s="7" t="s">
@@ -11137,22 +11124,22 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="B256" s="20" t="s">
+      <c r="B256" s="17" t="s">
         <v>468</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D256" s="0" t="s">
+      <c r="D256" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F256" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G256" s="20" t="s">
+      <c r="G256" s="17" t="s">
         <v>467</v>
       </c>
       <c r="H256" s="0" t="n">
@@ -11161,7 +11148,7 @@
       <c r="J256" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L256" s="20" t="n">
+      <c r="L256" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M256" s="7" t="s">
@@ -11169,22 +11156,22 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="20" t="s">
+      <c r="A257" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="B257" s="20" t="s">
+      <c r="B257" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="0" t="s">
+      <c r="D257" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F257" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G257" s="20" t="s">
+      <c r="G257" s="17" t="s">
         <v>469</v>
       </c>
       <c r="H257" s="0" t="n">
@@ -11193,7 +11180,7 @@
       <c r="J257" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L257" s="20" t="n">
+      <c r="L257" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M257" s="7" t="s">
@@ -11201,22 +11188,22 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="20" t="s">
+      <c r="A258" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="B258" s="20" t="s">
+      <c r="B258" s="17" t="s">
         <v>321</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D258" s="0" t="s">
+      <c r="D258" s="15" t="s">
         <v>457</v>
       </c>
       <c r="F258" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G258" s="20" t="s">
+      <c r="G258" s="17" t="s">
         <v>470</v>
       </c>
       <c r="H258" s="0" t="n">
@@ -11225,7 +11212,7 @@
       <c r="J258" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L258" s="20" t="n">
+      <c r="L258" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M258" s="7" t="s">
@@ -11250,65 +11237,65 @@
   </sheetPr>
   <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.0890688259109"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>476</v>
       </c>
     </row>
@@ -11322,21 +11309,21 @@
       <c r="C5" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="13" t="s">
         <v>478</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" s="27" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="25" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>479</v>
       </c>
       <c r="D6" s="12"/>
@@ -11346,14 +11333,14 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" s="27" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="25" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>480</v>
       </c>
       <c r="D7" s="12"/>
@@ -11373,7 +11360,7 @@
       <c r="C8" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="13" t="s">
         <v>478</v>
       </c>
@@ -11390,7 +11377,7 @@
       <c r="C9" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="13" t="s">
         <v>478</v>
       </c>
@@ -11407,7 +11394,7 @@
       <c r="C10" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="13" t="s">
         <v>478</v>
       </c>
@@ -11424,7 +11411,7 @@
       <c r="C11" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="13" t="s">
         <v>478</v>
       </c>
@@ -11441,7 +11428,7 @@
       <c r="C12" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="13" t="s">
         <v>478</v>
       </c>
@@ -11458,7 +11445,7 @@
       <c r="C13" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="13" t="s">
         <v>478</v>
       </c>
@@ -11475,7 +11462,7 @@
       <c r="C14" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="13" t="s">
         <v>478</v>
       </c>
@@ -11492,7 +11479,7 @@
       <c r="C15" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="13" t="s">
         <v>478</v>
       </c>
@@ -11509,7 +11496,7 @@
       <c r="C16" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="13" t="s">
         <v>478</v>
       </c>
@@ -11526,7 +11513,7 @@
       <c r="C17" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="13" t="s">
         <v>478</v>
       </c>
@@ -11543,7 +11530,7 @@
       <c r="C18" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="13" t="s">
         <v>478</v>
       </c>
@@ -11560,7 +11547,7 @@
       <c r="C19" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="13" t="s">
         <v>478</v>
       </c>
@@ -11577,7 +11564,7 @@
       <c r="C20" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="13" t="s">
         <v>478</v>
       </c>
@@ -11594,7 +11581,7 @@
       <c r="C21" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="13" t="s">
         <v>478</v>
       </c>
@@ -11611,7 +11598,7 @@
       <c r="C22" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="13" t="s">
         <v>496</v>
       </c>
@@ -11628,7 +11615,7 @@
       <c r="C23" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="13" t="s">
         <v>478</v>
       </c>
@@ -11645,7 +11632,7 @@
       <c r="C24" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="13" t="s">
         <v>478</v>
       </c>
@@ -11662,7 +11649,7 @@
       <c r="C25" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="13" t="s">
         <v>478</v>
       </c>
@@ -11679,7 +11666,7 @@
       <c r="C26" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="13" t="s">
         <v>478</v>
       </c>
@@ -11696,7 +11683,7 @@
       <c r="C27" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="13" t="s">
         <v>478</v>
       </c>
@@ -11713,7 +11700,7 @@
       <c r="C28" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="13" t="s">
         <v>478</v>
       </c>
@@ -11730,7 +11717,7 @@
       <c r="C29" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="13" t="s">
         <v>478</v>
       </c>
@@ -11747,7 +11734,7 @@
       <c r="C30" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="13" t="s">
         <v>478</v>
       </c>
@@ -11764,7 +11751,7 @@
       <c r="C31" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="13" t="s">
         <v>478</v>
       </c>
@@ -11781,7 +11768,7 @@
       <c r="C32" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="13" t="s">
         <v>478</v>
       </c>
@@ -11798,7 +11785,7 @@
       <c r="C33" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="13" t="s">
         <v>478</v>
       </c>
@@ -11815,7 +11802,7 @@
       <c r="C34" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="13" t="s">
         <v>478</v>
       </c>
@@ -11832,7 +11819,7 @@
       <c r="C35" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="13" t="s">
         <v>478</v>
       </c>
@@ -11849,7 +11836,7 @@
       <c r="C36" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="13" t="s">
         <v>478</v>
       </c>
@@ -11866,7 +11853,7 @@
       <c r="C37" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="13" t="s">
         <v>478</v>
       </c>
@@ -11883,7 +11870,7 @@
       <c r="C38" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="13" t="s">
         <v>478</v>
       </c>
@@ -11900,7 +11887,7 @@
       <c r="C39" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="13" t="s">
         <v>478</v>
       </c>
@@ -11917,7 +11904,7 @@
       <c r="C40" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="13" t="s">
         <v>478</v>
       </c>
@@ -11934,7 +11921,7 @@
       <c r="C41" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="13" t="s">
         <v>478</v>
       </c>
@@ -11951,7 +11938,7 @@
       <c r="C42" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="13" t="s">
         <v>478</v>
       </c>
@@ -11968,7 +11955,7 @@
       <c r="C43" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="13" t="s">
         <v>478</v>
       </c>
@@ -11985,7 +11972,7 @@
       <c r="C44" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="13" t="s">
         <v>478</v>
       </c>
@@ -12002,7 +11989,7 @@
       <c r="C45" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="13" t="s">
         <v>478</v>
       </c>
@@ -12019,7 +12006,7 @@
       <c r="C46" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="13" t="s">
         <v>478</v>
       </c>
@@ -12036,7 +12023,7 @@
       <c r="C47" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="13" t="s">
         <v>478</v>
       </c>
@@ -12053,7 +12040,7 @@
       <c r="C48" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="13" t="s">
         <v>478</v>
       </c>
@@ -12070,7 +12057,7 @@
       <c r="C49" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="13" t="s">
         <v>478</v>
       </c>
@@ -12087,7 +12074,7 @@
       <c r="C50" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="13" t="s">
         <v>478</v>
       </c>
@@ -12104,7 +12091,7 @@
       <c r="C51" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="13" t="s">
         <v>478</v>
       </c>
@@ -12121,7 +12108,7 @@
       <c r="C52" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="D52" s="25"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="13" t="s">
         <v>478</v>
       </c>
@@ -12138,7 +12125,7 @@
       <c r="C53" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="13" t="s">
         <v>496</v>
       </c>
@@ -12155,7 +12142,7 @@
       <c r="C54" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="D54" s="25"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="13" t="s">
         <v>478</v>
       </c>
@@ -12172,7 +12159,7 @@
       <c r="C55" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="13" t="s">
         <v>478</v>
       </c>
@@ -12189,7 +12176,7 @@
       <c r="C56" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="13" t="s">
         <v>478</v>
       </c>
@@ -12206,7 +12193,7 @@
       <c r="C57" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="13" t="s">
         <v>478</v>
       </c>
@@ -12223,7 +12210,7 @@
       <c r="C58" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="13" t="s">
         <v>478</v>
       </c>
@@ -12240,7 +12227,7 @@
       <c r="C59" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="D59" s="25"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="13" t="s">
         <v>478</v>
       </c>
@@ -12257,7 +12244,7 @@
       <c r="C60" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="13" t="s">
         <v>478</v>
       </c>
@@ -12274,7 +12261,7 @@
       <c r="C61" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="25"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="13" t="s">
         <v>478</v>
       </c>
@@ -12291,7 +12278,7 @@
       <c r="C62" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="D62" s="25"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="13" t="s">
         <v>478</v>
       </c>
@@ -12308,7 +12295,7 @@
       <c r="C63" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="D63" s="25"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="13" t="s">
         <v>478</v>
       </c>
@@ -12325,7 +12312,7 @@
       <c r="C64" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="D64" s="25"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="13" t="s">
         <v>478</v>
       </c>
@@ -12342,7 +12329,7 @@
       <c r="C65" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="D65" s="25"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="13" t="s">
         <v>478</v>
       </c>
@@ -12359,7 +12346,7 @@
       <c r="C66" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="D66" s="25"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="13" t="s">
         <v>478</v>
       </c>
@@ -12376,7 +12363,7 @@
       <c r="C67" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="D67" s="25"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="13" t="s">
         <v>478</v>
       </c>
@@ -12393,7 +12380,7 @@
       <c r="C68" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="D68" s="25"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="13" t="s">
         <v>478</v>
       </c>
@@ -12410,7 +12397,7 @@
       <c r="C69" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="25"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="13" t="s">
         <v>478</v>
       </c>
@@ -12427,7 +12414,7 @@
       <c r="C70" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="D70" s="25"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="13" t="s">
         <v>478</v>
       </c>
@@ -12444,7 +12431,7 @@
       <c r="C71" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="D71" s="25"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="13" t="s">
         <v>478</v>
       </c>
@@ -12461,7 +12448,7 @@
       <c r="C72" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="D72" s="25"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="13" t="s">
         <v>478</v>
       </c>
@@ -12478,7 +12465,7 @@
       <c r="C73" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="D73" s="25"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="13" t="s">
         <v>478</v>
       </c>
@@ -12495,7 +12482,7 @@
       <c r="C74" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="D74" s="25"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="13" t="s">
         <v>478</v>
       </c>
@@ -12512,7 +12499,7 @@
       <c r="C75" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="D75" s="25"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="13" t="s">
         <v>478</v>
       </c>
@@ -12529,7 +12516,7 @@
       <c r="C76" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="D76" s="25"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="13" t="s">
         <v>478</v>
       </c>
@@ -12546,7 +12533,7 @@
       <c r="C77" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="D77" s="25"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="13" t="s">
         <v>478</v>
       </c>
@@ -12563,7 +12550,7 @@
       <c r="C78" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="13" t="s">
         <v>478</v>
       </c>
@@ -12580,7 +12567,7 @@
       <c r="C79" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="D79" s="25"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="13" t="s">
         <v>478</v>
       </c>
@@ -12597,7 +12584,7 @@
       <c r="C80" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="D80" s="25"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="13" t="s">
         <v>496</v>
       </c>
@@ -12614,7 +12601,7 @@
       <c r="C81" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="D81" s="25"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="13" t="s">
         <v>478</v>
       </c>
@@ -12631,7 +12618,7 @@
       <c r="C82" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="D82" s="25"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="13" t="s">
         <v>478</v>
       </c>
@@ -12648,7 +12635,7 @@
       <c r="C83" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="D83" s="25"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="13" t="s">
         <v>478</v>
       </c>
@@ -12665,7 +12652,7 @@
       <c r="C84" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D84" s="25"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="13" t="s">
         <v>478</v>
       </c>
@@ -12682,7 +12669,7 @@
       <c r="C85" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="D85" s="25"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="13" t="s">
         <v>478</v>
       </c>
@@ -12699,7 +12686,7 @@
       <c r="C86" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D86" s="25"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="13" t="s">
         <v>478</v>
       </c>
@@ -12716,7 +12703,7 @@
       <c r="C87" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="D87" s="25"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="13" t="s">
         <v>478</v>
       </c>
@@ -12733,7 +12720,7 @@
       <c r="C88" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="D88" s="25"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="13" t="s">
         <v>478</v>
       </c>
@@ -12750,7 +12737,7 @@
       <c r="C89" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="D89" s="25"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="13" t="s">
         <v>478</v>
       </c>
@@ -12767,7 +12754,7 @@
       <c r="C90" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="D90" s="25"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="13" t="s">
         <v>478</v>
       </c>
@@ -12784,7 +12771,7 @@
       <c r="C91" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="D91" s="25"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="13" t="s">
         <v>478</v>
       </c>
@@ -12801,7 +12788,7 @@
       <c r="C92" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="D92" s="25"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="13" t="s">
         <v>478</v>
       </c>
@@ -12818,7 +12805,7 @@
       <c r="C93" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="D93" s="25"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="13" t="s">
         <v>478</v>
       </c>
@@ -12835,7 +12822,7 @@
       <c r="C94" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D94" s="25"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="13" t="s">
         <v>478</v>
       </c>
@@ -12852,7 +12839,7 @@
       <c r="C95" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="D95" s="25"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="13" t="s">
         <v>496</v>
       </c>
@@ -12869,7 +12856,7 @@
       <c r="C96" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="D96" s="25"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="13" t="s">
         <v>478</v>
       </c>
@@ -12886,7 +12873,7 @@
       <c r="C97" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="D97" s="25"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="13" t="s">
         <v>478</v>
       </c>
@@ -12903,7 +12890,7 @@
       <c r="C98" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="D98" s="25"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="13" t="s">
         <v>478</v>
       </c>
@@ -12920,7 +12907,7 @@
       <c r="C99" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="D99" s="25"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="13" t="s">
         <v>478</v>
       </c>
@@ -12937,7 +12924,7 @@
       <c r="C100" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="D100" s="25"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="13" t="s">
         <v>478</v>
       </c>
@@ -12954,7 +12941,7 @@
       <c r="C101" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="D101" s="25"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="13" t="s">
         <v>478</v>
       </c>
@@ -12971,7 +12958,7 @@
       <c r="C102" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="D102" s="25"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="13" t="s">
         <v>478</v>
       </c>
@@ -12988,7 +12975,7 @@
       <c r="C103" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="D103" s="25"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="13" t="s">
         <v>478</v>
       </c>
@@ -13005,7 +12992,7 @@
       <c r="C104" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="D104" s="25"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="13" t="s">
         <v>478</v>
       </c>
@@ -13022,7 +13009,7 @@
       <c r="C105" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="D105" s="25"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="13" t="s">
         <v>478</v>
       </c>
@@ -13039,7 +13026,7 @@
       <c r="C106" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D106" s="25"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="13" t="s">
         <v>478</v>
       </c>
@@ -13056,7 +13043,7 @@
       <c r="C107" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D107" s="25"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="13" t="s">
         <v>478</v>
       </c>
@@ -13073,7 +13060,7 @@
       <c r="C108" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D108" s="25"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="13" t="s">
         <v>478</v>
       </c>
@@ -13090,7 +13077,7 @@
       <c r="C109" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="D109" s="25"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="13" t="s">
         <v>478</v>
       </c>
@@ -13107,7 +13094,7 @@
       <c r="C110" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="13" t="s">
         <v>478</v>
       </c>
@@ -13124,7 +13111,7 @@
       <c r="C111" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="D111" s="25"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="13" t="s">
         <v>478</v>
       </c>
@@ -13141,7 +13128,7 @@
       <c r="C112" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="D112" s="25"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="13" t="s">
         <v>478</v>
       </c>
@@ -13158,7 +13145,7 @@
       <c r="C113" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="D113" s="25"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="13" t="s">
         <v>496</v>
       </c>
@@ -13175,7 +13162,7 @@
       <c r="C114" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D114" s="25"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="13" t="s">
         <v>478</v>
       </c>
@@ -13192,7 +13179,7 @@
       <c r="C115" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="D115" s="25"/>
+      <c r="D115" s="23"/>
       <c r="E115" s="13" t="s">
         <v>478</v>
       </c>
@@ -13209,7 +13196,7 @@
       <c r="C116" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="D116" s="25"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="13" t="s">
         <v>478</v>
       </c>
@@ -13226,7 +13213,7 @@
       <c r="C117" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D117" s="25"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="13" t="s">
         <v>478</v>
       </c>
@@ -13243,7 +13230,7 @@
       <c r="C118" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="D118" s="25"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="13" t="s">
         <v>478</v>
       </c>
@@ -13260,7 +13247,7 @@
       <c r="C119" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="D119" s="25"/>
+      <c r="D119" s="23"/>
       <c r="E119" s="13" t="s">
         <v>478</v>
       </c>
@@ -13277,7 +13264,7 @@
       <c r="C120" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="13" t="s">
         <v>478</v>
       </c>
@@ -13294,7 +13281,7 @@
       <c r="C121" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="D121" s="25"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="13" t="s">
         <v>478</v>
       </c>
@@ -13311,7 +13298,7 @@
       <c r="C122" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="D122" s="25"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="13" t="s">
         <v>478</v>
       </c>
@@ -13328,7 +13315,7 @@
       <c r="C123" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D123" s="25"/>
+      <c r="D123" s="23"/>
       <c r="E123" s="13" t="s">
         <v>478</v>
       </c>
@@ -13345,7 +13332,7 @@
       <c r="C124" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="D124" s="25"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="13" t="s">
         <v>478</v>
       </c>
@@ -13362,7 +13349,7 @@
       <c r="C125" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="D125" s="25"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="13" t="s">
         <v>478</v>
       </c>
@@ -13379,7 +13366,7 @@
       <c r="C126" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="D126" s="25"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="13" t="s">
         <v>478</v>
       </c>
@@ -13396,7 +13383,7 @@
       <c r="C127" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="D127" s="25"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="13" t="s">
         <v>478</v>
       </c>
@@ -13413,7 +13400,7 @@
       <c r="C128" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="D128" s="25"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="13" t="s">
         <v>478</v>
       </c>
@@ -13430,7 +13417,7 @@
       <c r="C129" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="D129" s="25"/>
+      <c r="D129" s="23"/>
       <c r="E129" s="13" t="s">
         <v>478</v>
       </c>
@@ -13447,7 +13434,7 @@
       <c r="C130" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="D130" s="25"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="13" t="s">
         <v>478</v>
       </c>
@@ -13464,7 +13451,7 @@
       <c r="C131" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="D131" s="25"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="13" t="s">
         <v>478</v>
       </c>
@@ -13481,7 +13468,7 @@
       <c r="C132" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="D132" s="25"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="13" t="s">
         <v>478</v>
       </c>
@@ -13498,7 +13485,7 @@
       <c r="C133" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="D133" s="25"/>
+      <c r="D133" s="23"/>
       <c r="E133" s="13" t="s">
         <v>478</v>
       </c>
@@ -13515,7 +13502,7 @@
       <c r="C134" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="D134" s="25"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="13" t="s">
         <v>478</v>
       </c>
@@ -13532,7 +13519,7 @@
       <c r="C135" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="D135" s="25"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="13" t="s">
         <v>478</v>
       </c>
@@ -13549,7 +13536,7 @@
       <c r="C136" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="D136" s="25"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="13" t="s">
         <v>478</v>
       </c>
@@ -13566,7 +13553,7 @@
       <c r="C137" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="D137" s="25"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="13" t="s">
         <v>478</v>
       </c>
@@ -13583,7 +13570,7 @@
       <c r="C138" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="D138" s="25"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="13" t="s">
         <v>478</v>
       </c>
@@ -13600,7 +13587,7 @@
       <c r="C139" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="D139" s="25"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="13" t="s">
         <v>478</v>
       </c>
@@ -13617,7 +13604,7 @@
       <c r="C140" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="D140" s="25"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="13" t="s">
         <v>496</v>
       </c>
@@ -13634,7 +13621,7 @@
       <c r="C141" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="D141" s="25"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="13" t="s">
         <v>478</v>
       </c>
@@ -13651,7 +13638,7 @@
       <c r="C142" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="D142" s="25"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="13" t="s">
         <v>478</v>
       </c>
@@ -13665,10 +13652,10 @@
       <c r="B143" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="D143" s="25"/>
+      <c r="D143" s="23"/>
       <c r="E143" s="13" t="s">
         <v>478</v>
       </c>
@@ -13685,7 +13672,7 @@
       <c r="C144" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="D144" s="25"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="13" t="s">
         <v>478</v>
       </c>
@@ -13702,7 +13689,7 @@
       <c r="C145" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D145" s="25"/>
+      <c r="D145" s="23"/>
       <c r="E145" s="13" t="s">
         <v>478</v>
       </c>
@@ -13719,7 +13706,7 @@
       <c r="C146" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D146" s="25"/>
+      <c r="D146" s="23"/>
       <c r="E146" s="13" t="s">
         <v>478</v>
       </c>
@@ -13736,7 +13723,7 @@
       <c r="C147" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D147" s="25"/>
+      <c r="D147" s="23"/>
       <c r="E147" s="13" t="s">
         <v>478</v>
       </c>
@@ -13753,7 +13740,7 @@
       <c r="C148" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D148" s="25"/>
+      <c r="D148" s="23"/>
       <c r="E148" s="13" t="s">
         <v>478</v>
       </c>
@@ -13770,7 +13757,7 @@
       <c r="C149" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D149" s="25"/>
+      <c r="D149" s="23"/>
       <c r="E149" s="13" t="s">
         <v>478</v>
       </c>
@@ -13787,7 +13774,7 @@
       <c r="C150" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D150" s="25"/>
+      <c r="D150" s="23"/>
       <c r="E150" s="13" t="s">
         <v>478</v>
       </c>
@@ -13804,7 +13791,7 @@
       <c r="C151" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D151" s="25"/>
+      <c r="D151" s="23"/>
       <c r="E151" s="13" t="s">
         <v>478</v>
       </c>
@@ -13821,7 +13808,7 @@
       <c r="C152" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D152" s="25"/>
+      <c r="D152" s="23"/>
       <c r="E152" s="13" t="s">
         <v>478</v>
       </c>
@@ -13838,7 +13825,7 @@
       <c r="C153" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D153" s="25"/>
+      <c r="D153" s="23"/>
       <c r="E153" s="13" t="s">
         <v>478</v>
       </c>
@@ -13855,7 +13842,7 @@
       <c r="C154" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D154" s="25"/>
+      <c r="D154" s="23"/>
       <c r="E154" s="13" t="s">
         <v>478</v>
       </c>
@@ -13872,7 +13859,7 @@
       <c r="C155" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D155" s="25"/>
+      <c r="D155" s="23"/>
       <c r="E155" s="13" t="s">
         <v>478</v>
       </c>
@@ -13889,7 +13876,7 @@
       <c r="C156" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D156" s="25"/>
+      <c r="D156" s="23"/>
       <c r="E156" s="13" t="s">
         <v>478</v>
       </c>
@@ -13906,7 +13893,7 @@
       <c r="C157" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D157" s="25"/>
+      <c r="D157" s="23"/>
       <c r="E157" s="13" t="s">
         <v>478</v>
       </c>
@@ -13923,7 +13910,7 @@
       <c r="C158" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D158" s="25"/>
+      <c r="D158" s="23"/>
       <c r="E158" s="13" t="s">
         <v>478</v>
       </c>
@@ -13940,7 +13927,7 @@
       <c r="C159" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D159" s="25"/>
+      <c r="D159" s="23"/>
       <c r="E159" s="13" t="s">
         <v>478</v>
       </c>
@@ -13957,7 +13944,7 @@
       <c r="C160" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D160" s="25"/>
+      <c r="D160" s="23"/>
       <c r="E160" s="13" t="s">
         <v>478</v>
       </c>
@@ -13974,7 +13961,7 @@
       <c r="C161" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D161" s="25"/>
+      <c r="D161" s="23"/>
       <c r="E161" s="13" t="s">
         <v>478</v>
       </c>
@@ -13991,7 +13978,7 @@
       <c r="C162" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="D162" s="25"/>
+      <c r="D162" s="23"/>
       <c r="E162" s="13" t="s">
         <v>478</v>
       </c>
@@ -14008,7 +13995,7 @@
       <c r="C163" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D163" s="25"/>
+      <c r="D163" s="23"/>
       <c r="E163" s="13" t="s">
         <v>478</v>
       </c>
@@ -14025,7 +14012,7 @@
       <c r="C164" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D164" s="25"/>
+      <c r="D164" s="23"/>
       <c r="E164" s="13" t="s">
         <v>478</v>
       </c>
@@ -14042,7 +14029,7 @@
       <c r="C165" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D165" s="25"/>
+      <c r="D165" s="23"/>
       <c r="E165" s="13" t="s">
         <v>478</v>
       </c>
@@ -14059,7 +14046,7 @@
       <c r="C166" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="D166" s="25"/>
+      <c r="D166" s="23"/>
       <c r="E166" s="13" t="s">
         <v>478</v>
       </c>
@@ -14076,7 +14063,7 @@
       <c r="C167" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D167" s="25"/>
+      <c r="D167" s="23"/>
       <c r="E167" s="13" t="s">
         <v>478</v>
       </c>
@@ -14093,7 +14080,7 @@
       <c r="C168" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D168" s="25"/>
+      <c r="D168" s="23"/>
       <c r="E168" s="13" t="s">
         <v>478</v>
       </c>
@@ -14110,7 +14097,7 @@
       <c r="C169" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D169" s="25"/>
+      <c r="D169" s="23"/>
       <c r="E169" s="13" t="s">
         <v>478</v>
       </c>
@@ -14127,7 +14114,7 @@
       <c r="C170" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D170" s="25"/>
+      <c r="D170" s="23"/>
       <c r="E170" s="13" t="s">
         <v>478</v>
       </c>
@@ -14144,7 +14131,7 @@
       <c r="C171" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D171" s="25"/>
+      <c r="D171" s="23"/>
       <c r="E171" s="13" t="s">
         <v>478</v>
       </c>
@@ -14161,7 +14148,7 @@
       <c r="C172" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D172" s="25"/>
+      <c r="D172" s="23"/>
       <c r="E172" s="13" t="s">
         <v>478</v>
       </c>
@@ -14178,7 +14165,7 @@
       <c r="C173" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="25"/>
+      <c r="D173" s="23"/>
       <c r="E173" s="13" t="s">
         <v>478</v>
       </c>
@@ -14195,7 +14182,7 @@
       <c r="C174" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D174" s="25"/>
+      <c r="D174" s="23"/>
       <c r="E174" s="13" t="s">
         <v>478</v>
       </c>
@@ -14212,7 +14199,7 @@
       <c r="C175" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="D175" s="25"/>
+      <c r="D175" s="23"/>
       <c r="E175" s="13" t="s">
         <v>478</v>
       </c>
@@ -14229,7 +14216,7 @@
       <c r="C176" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D176" s="25"/>
+      <c r="D176" s="23"/>
       <c r="E176" s="13" t="s">
         <v>478</v>
       </c>
@@ -14246,7 +14233,7 @@
       <c r="C177" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D177" s="25"/>
+      <c r="D177" s="23"/>
       <c r="E177" s="13" t="s">
         <v>478</v>
       </c>
@@ -14263,7 +14250,7 @@
       <c r="C178" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D178" s="25"/>
+      <c r="D178" s="23"/>
       <c r="E178" s="13" t="s">
         <v>478</v>
       </c>
@@ -14280,7 +14267,7 @@
       <c r="C179" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D179" s="25"/>
+      <c r="D179" s="23"/>
       <c r="E179" s="13" t="s">
         <v>478</v>
       </c>
@@ -14297,7 +14284,7 @@
       <c r="C180" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D180" s="25"/>
+      <c r="D180" s="23"/>
       <c r="E180" s="13" t="s">
         <v>478</v>
       </c>
@@ -14314,7 +14301,7 @@
       <c r="C181" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D181" s="25"/>
+      <c r="D181" s="23"/>
       <c r="E181" s="13" t="s">
         <v>478</v>
       </c>
@@ -14331,7 +14318,7 @@
       <c r="C182" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D182" s="25"/>
+      <c r="D182" s="23"/>
       <c r="E182" s="13" t="s">
         <v>478</v>
       </c>
@@ -14348,7 +14335,7 @@
       <c r="C183" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D183" s="25"/>
+      <c r="D183" s="23"/>
       <c r="E183" s="13" t="s">
         <v>478</v>
       </c>
@@ -14365,7 +14352,7 @@
       <c r="C184" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D184" s="25"/>
+      <c r="D184" s="23"/>
       <c r="E184" s="13" t="s">
         <v>478</v>
       </c>
@@ -14382,7 +14369,7 @@
       <c r="C185" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="25"/>
+      <c r="D185" s="23"/>
       <c r="E185" s="13" t="s">
         <v>478</v>
       </c>
@@ -14399,7 +14386,7 @@
       <c r="C186" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D186" s="25"/>
+      <c r="D186" s="23"/>
       <c r="E186" s="13" t="s">
         <v>478</v>
       </c>
@@ -14416,7 +14403,7 @@
       <c r="C187" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D187" s="25"/>
+      <c r="D187" s="23"/>
       <c r="E187" s="13" t="s">
         <v>478</v>
       </c>
@@ -14433,7 +14420,7 @@
       <c r="C188" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="D188" s="25"/>
+      <c r="D188" s="23"/>
       <c r="E188" s="13" t="s">
         <v>478</v>
       </c>
@@ -14450,7 +14437,7 @@
       <c r="C189" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D189" s="25"/>
+      <c r="D189" s="23"/>
       <c r="E189" s="13" t="s">
         <v>478</v>
       </c>
@@ -14467,7 +14454,7 @@
       <c r="C190" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D190" s="25"/>
+      <c r="D190" s="23"/>
       <c r="E190" s="13" t="s">
         <v>478</v>
       </c>
@@ -14484,7 +14471,7 @@
       <c r="C191" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D191" s="25"/>
+      <c r="D191" s="23"/>
       <c r="E191" s="13" t="s">
         <v>478</v>
       </c>
@@ -14501,7 +14488,7 @@
       <c r="C192" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D192" s="25"/>
+      <c r="D192" s="23"/>
       <c r="E192" s="13" t="s">
         <v>478</v>
       </c>
@@ -14518,7 +14505,7 @@
       <c r="C193" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D193" s="25"/>
+      <c r="D193" s="23"/>
       <c r="E193" s="13" t="s">
         <v>478</v>
       </c>
@@ -14535,7 +14522,7 @@
       <c r="C194" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D194" s="25"/>
+      <c r="D194" s="23"/>
       <c r="E194" s="13" t="s">
         <v>478</v>
       </c>
@@ -14552,7 +14539,7 @@
       <c r="C195" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="D195" s="25"/>
+      <c r="D195" s="23"/>
       <c r="E195" s="13" t="s">
         <v>478</v>
       </c>
@@ -14569,7 +14556,7 @@
       <c r="C196" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D196" s="25"/>
+      <c r="D196" s="23"/>
       <c r="E196" s="13" t="s">
         <v>478</v>
       </c>
@@ -14586,7 +14573,7 @@
       <c r="C197" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D197" s="25"/>
+      <c r="D197" s="23"/>
       <c r="E197" s="13" t="s">
         <v>478</v>
       </c>
@@ -14603,7 +14590,7 @@
       <c r="C198" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D198" s="25"/>
+      <c r="D198" s="23"/>
       <c r="E198" s="13" t="s">
         <v>478</v>
       </c>
@@ -14620,7 +14607,7 @@
       <c r="C199" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D199" s="25"/>
+      <c r="D199" s="23"/>
       <c r="E199" s="13" t="s">
         <v>478</v>
       </c>
@@ -14637,7 +14624,7 @@
       <c r="C200" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D200" s="25"/>
+      <c r="D200" s="23"/>
       <c r="E200" s="13" t="s">
         <v>478</v>
       </c>
@@ -14654,7 +14641,7 @@
       <c r="C201" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D201" s="25"/>
+      <c r="D201" s="23"/>
       <c r="E201" s="13" t="s">
         <v>478</v>
       </c>
@@ -14671,7 +14658,7 @@
       <c r="C202" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D202" s="25"/>
+      <c r="D202" s="23"/>
       <c r="E202" s="13" t="s">
         <v>478</v>
       </c>
@@ -14688,7 +14675,7 @@
       <c r="C203" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D203" s="25"/>
+      <c r="D203" s="23"/>
       <c r="E203" s="13" t="s">
         <v>478</v>
       </c>
@@ -14705,7 +14692,7 @@
       <c r="C204" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D204" s="25"/>
+      <c r="D204" s="23"/>
       <c r="E204" s="13" t="s">
         <v>478</v>
       </c>
@@ -14722,7 +14709,7 @@
       <c r="C205" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D205" s="25"/>
+      <c r="D205" s="23"/>
       <c r="E205" s="13" t="s">
         <v>478</v>
       </c>
@@ -14739,7 +14726,7 @@
       <c r="C206" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D206" s="25"/>
+      <c r="D206" s="23"/>
       <c r="E206" s="13" t="s">
         <v>478</v>
       </c>
@@ -14756,7 +14743,7 @@
       <c r="C207" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D207" s="25"/>
+      <c r="D207" s="23"/>
       <c r="E207" s="13" t="s">
         <v>478</v>
       </c>
@@ -14773,7 +14760,7 @@
       <c r="C208" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D208" s="25"/>
+      <c r="D208" s="23"/>
       <c r="E208" s="13" t="s">
         <v>478</v>
       </c>
@@ -14790,7 +14777,7 @@
       <c r="C209" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D209" s="25"/>
+      <c r="D209" s="23"/>
       <c r="E209" s="13" t="s">
         <v>478</v>
       </c>
@@ -14807,7 +14794,7 @@
       <c r="C210" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D210" s="25"/>
+      <c r="D210" s="23"/>
       <c r="E210" s="13" t="s">
         <v>478</v>
       </c>
@@ -14824,7 +14811,7 @@
       <c r="C211" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D211" s="25"/>
+      <c r="D211" s="23"/>
       <c r="E211" s="13" t="s">
         <v>478</v>
       </c>
@@ -14841,7 +14828,7 @@
       <c r="C212" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D212" s="25"/>
+      <c r="D212" s="23"/>
       <c r="E212" s="13" t="s">
         <v>478</v>
       </c>
@@ -14858,7 +14845,7 @@
       <c r="C213" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="D213" s="25"/>
+      <c r="D213" s="23"/>
       <c r="E213" s="13" t="s">
         <v>478</v>
       </c>
@@ -14875,7 +14862,7 @@
       <c r="C214" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D214" s="25"/>
+      <c r="D214" s="23"/>
       <c r="E214" s="13" t="s">
         <v>478</v>
       </c>
@@ -14892,7 +14879,7 @@
       <c r="C215" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D215" s="25"/>
+      <c r="D215" s="23"/>
       <c r="E215" s="13" t="s">
         <v>478</v>
       </c>
@@ -14909,7 +14896,7 @@
       <c r="C216" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D216" s="25"/>
+      <c r="D216" s="23"/>
       <c r="E216" s="13" t="s">
         <v>478</v>
       </c>
@@ -14926,7 +14913,7 @@
       <c r="C217" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D217" s="25"/>
+      <c r="D217" s="23"/>
       <c r="E217" s="13" t="s">
         <v>478</v>
       </c>
@@ -14943,7 +14930,7 @@
       <c r="C218" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D218" s="25"/>
+      <c r="D218" s="23"/>
       <c r="E218" s="13" t="s">
         <v>478</v>
       </c>
@@ -14960,7 +14947,7 @@
       <c r="C219" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="D219" s="25"/>
+      <c r="D219" s="23"/>
       <c r="E219" s="13" t="s">
         <v>478</v>
       </c>
@@ -14977,7 +14964,7 @@
       <c r="C220" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D220" s="25"/>
+      <c r="D220" s="23"/>
       <c r="E220" s="13" t="s">
         <v>478</v>
       </c>
@@ -14994,7 +14981,7 @@
       <c r="C221" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D221" s="25"/>
+      <c r="D221" s="23"/>
       <c r="E221" s="13" t="s">
         <v>478</v>
       </c>
@@ -15011,7 +14998,7 @@
       <c r="C222" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D222" s="25"/>
+      <c r="D222" s="23"/>
       <c r="E222" s="13" t="s">
         <v>478</v>
       </c>
@@ -15028,7 +15015,7 @@
       <c r="C223" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D223" s="25"/>
+      <c r="D223" s="23"/>
       <c r="E223" s="13" t="s">
         <v>478</v>
       </c>
@@ -15045,7 +15032,7 @@
       <c r="C224" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D224" s="25"/>
+      <c r="D224" s="23"/>
       <c r="E224" s="13" t="s">
         <v>478</v>
       </c>
@@ -15062,7 +15049,7 @@
       <c r="C225" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D225" s="25"/>
+      <c r="D225" s="23"/>
       <c r="E225" s="13" t="s">
         <v>478</v>
       </c>
@@ -15079,7 +15066,7 @@
       <c r="C226" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D226" s="25"/>
+      <c r="D226" s="23"/>
       <c r="E226" s="13" t="s">
         <v>478</v>
       </c>
@@ -15096,7 +15083,7 @@
       <c r="C227" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D227" s="25"/>
+      <c r="D227" s="23"/>
       <c r="E227" s="13" t="s">
         <v>478</v>
       </c>
@@ -15113,7 +15100,7 @@
       <c r="C228" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D228" s="25"/>
+      <c r="D228" s="23"/>
       <c r="E228" s="13" t="s">
         <v>478</v>
       </c>
@@ -15130,7 +15117,7 @@
       <c r="C229" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D229" s="25"/>
+      <c r="D229" s="23"/>
       <c r="E229" s="13" t="s">
         <v>478</v>
       </c>
@@ -15147,7 +15134,7 @@
       <c r="C230" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D230" s="25"/>
+      <c r="D230" s="23"/>
       <c r="E230" s="13" t="s">
         <v>478</v>
       </c>
@@ -15158,13 +15145,13 @@
       <c r="A231" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C231" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="D231" s="25"/>
+      <c r="D231" s="23"/>
       <c r="E231" s="13" t="s">
         <v>478</v>
       </c>
@@ -15181,7 +15168,7 @@
       <c r="C232" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D232" s="25"/>
+      <c r="D232" s="23"/>
       <c r="E232" s="13" t="s">
         <v>478</v>
       </c>
@@ -15192,13 +15179,13 @@
       <c r="A233" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C233" s="18" t="s">
+      <c r="C233" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="D233" s="25"/>
+      <c r="D233" s="23"/>
       <c r="E233" s="13" t="s">
         <v>478</v>
       </c>
@@ -15215,7 +15202,7 @@
       <c r="C234" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D234" s="25"/>
+      <c r="D234" s="23"/>
       <c r="E234" s="13" t="s">
         <v>478</v>
       </c>
@@ -15232,7 +15219,7 @@
       <c r="C235" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D235" s="25"/>
+      <c r="D235" s="23"/>
       <c r="E235" s="13" t="s">
         <v>478</v>
       </c>
@@ -15249,7 +15236,7 @@
       <c r="C236" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="D236" s="25"/>
+      <c r="D236" s="23"/>
       <c r="E236" s="13" t="s">
         <v>478</v>
       </c>
@@ -15266,7 +15253,7 @@
       <c r="C237" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D237" s="25"/>
+      <c r="D237" s="23"/>
       <c r="E237" s="13" t="s">
         <v>478</v>
       </c>
@@ -15283,7 +15270,7 @@
       <c r="C238" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D238" s="25"/>
+      <c r="D238" s="23"/>
       <c r="E238" s="13" t="s">
         <v>478</v>
       </c>
@@ -15294,13 +15281,13 @@
       <c r="A239" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="B239" s="19" t="s">
+      <c r="B239" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="C239" s="19" t="s">
+      <c r="C239" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="D239" s="25"/>
+      <c r="D239" s="23"/>
       <c r="E239" s="13" t="s">
         <v>478</v>
       </c>
@@ -15311,13 +15298,13 @@
       <c r="A240" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B240" s="19" t="s">
+      <c r="B240" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="C240" s="19" t="s">
+      <c r="C240" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="D240" s="25"/>
+      <c r="D240" s="23"/>
       <c r="E240" s="13" t="s">
         <v>478</v>
       </c>
@@ -15328,13 +15315,13 @@
       <c r="A241" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B241" s="19" t="s">
+      <c r="B241" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="C241" s="19" t="s">
+      <c r="C241" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="D241" s="25"/>
+      <c r="D241" s="23"/>
       <c r="E241" s="13" t="s">
         <v>478</v>
       </c>
@@ -15345,13 +15332,13 @@
       <c r="A242" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="B242" s="19" t="s">
+      <c r="B242" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="C242" s="19" t="s">
+      <c r="C242" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="D242" s="25"/>
+      <c r="D242" s="23"/>
       <c r="E242" s="13" t="s">
         <v>478</v>
       </c>
@@ -15368,7 +15355,7 @@
       <c r="C243" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D243" s="25"/>
+      <c r="D243" s="23"/>
       <c r="E243" s="13" t="s">
         <v>478</v>
       </c>
@@ -15379,13 +15366,13 @@
       <c r="A244" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B244" s="19" t="s">
+      <c r="B244" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="C244" s="19" t="s">
+      <c r="C244" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="D244" s="25"/>
+      <c r="D244" s="23"/>
       <c r="E244" s="13" t="s">
         <v>478</v>
       </c>
@@ -15396,13 +15383,13 @@
       <c r="A245" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="B245" s="19" t="s">
+      <c r="B245" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="C245" s="19" t="s">
+      <c r="C245" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="D245" s="25"/>
+      <c r="D245" s="23"/>
       <c r="E245" s="13" t="s">
         <v>478</v>
       </c>
@@ -15413,13 +15400,13 @@
       <c r="A246" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="B246" s="19" t="s">
+      <c r="B246" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="C246" s="19" t="s">
+      <c r="C246" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="D246" s="25"/>
+      <c r="D246" s="23"/>
       <c r="E246" s="13" t="s">
         <v>478</v>
       </c>
@@ -15430,13 +15417,13 @@
       <c r="A247" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="B247" s="19" t="s">
+      <c r="B247" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="C247" s="19" t="s">
+      <c r="C247" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D247" s="25"/>
+      <c r="D247" s="23"/>
       <c r="E247" s="13" t="s">
         <v>478</v>
       </c>
@@ -15447,13 +15434,13 @@
       <c r="A248" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B248" s="19" t="s">
+      <c r="B248" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="C248" s="19" t="s">
+      <c r="C248" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D248" s="25"/>
+      <c r="D248" s="23"/>
       <c r="E248" s="13" t="s">
         <v>478</v>
       </c>
@@ -15464,13 +15451,13 @@
       <c r="A249" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B249" s="19" t="s">
+      <c r="B249" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D249" s="25"/>
+      <c r="D249" s="23"/>
       <c r="E249" s="13" t="s">
         <v>478</v>
       </c>
@@ -15478,10 +15465,10 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="20" t="s">
+      <c r="A250" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="C250" s="20" t="s">
+      <c r="C250" s="17" t="s">
         <v>298</v>
       </c>
       <c r="E250" s="13" t="s">
@@ -15489,10 +15476,10 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="20" t="s">
+      <c r="A251" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C251" s="20" t="s">
+      <c r="C251" s="17" t="s">
         <v>301</v>
       </c>
       <c r="E251" s="13" t="s">
@@ -15500,10 +15487,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="20" t="s">
+      <c r="A252" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C252" s="20" t="s">
+      <c r="C252" s="17" t="s">
         <v>303</v>
       </c>
       <c r="E252" s="13" t="s">
@@ -15511,10 +15498,10 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="20" t="s">
+      <c r="A253" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C253" s="20" t="s">
+      <c r="C253" s="17" t="s">
         <v>305</v>
       </c>
       <c r="E253" s="13" t="s">
@@ -15522,10 +15509,10 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="20" t="s">
+      <c r="A254" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C254" s="20" t="s">
+      <c r="C254" s="17" t="s">
         <v>462</v>
       </c>
       <c r="E254" s="13" t="s">
@@ -15533,10 +15520,10 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="20" t="s">
+      <c r="A255" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C255" s="20" t="s">
+      <c r="C255" s="17" t="s">
         <v>309</v>
       </c>
       <c r="E255" s="13" t="s">
@@ -15544,10 +15531,10 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C256" s="20" t="s">
+      <c r="C256" s="17" t="s">
         <v>311</v>
       </c>
       <c r="E256" s="13" t="s">
@@ -15555,10 +15542,10 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="20" t="s">
+      <c r="A257" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C257" s="20" t="s">
+      <c r="C257" s="17" t="s">
         <v>313</v>
       </c>
       <c r="E257" s="13" t="s">
@@ -15566,10 +15553,10 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="20" t="s">
+      <c r="A258" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="C258" s="17" t="s">
         <v>315</v>
       </c>
       <c r="E258" s="13" t="s">
@@ -15577,10 +15564,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="20" t="s">
+      <c r="A259" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C259" s="17" t="s">
         <v>468</v>
       </c>
       <c r="E259" s="13" t="s">
@@ -15588,10 +15575,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="20" t="s">
+      <c r="A260" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="17" t="s">
         <v>319</v>
       </c>
       <c r="E260" s="13" t="s">
@@ -15599,10 +15586,10 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="20" t="s">
+      <c r="A261" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="C261" s="20" t="s">
+      <c r="C261" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E261" s="13" t="s">
